--- a/data/schedule_b_reference.xlsx
+++ b/data/schedule_b_reference.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B-400\PycharmProjects\flaskProject\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\B-400\fsdc-server\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEAB174C-74E0-4920-A312-18611F343BC1}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81B76BE6-5602-4D32-A85C-9806EFDBCF42}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11505" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2976" uniqueCount="222">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="310">
   <si>
     <t>Potatoes (Fried, French fries)</t>
   </si>
@@ -694,13 +694,277 @@
   </si>
   <si>
     <t xml:space="preserve"> Fermented Beverages, Nesoi (Includ Cider, Perry &amp; Mead); Mixtures of Fermented Beverages &amp; Mixtures of Fermntd Beverages &amp; NonAl</t>
+  </si>
+  <si>
+    <t>0101</t>
+  </si>
+  <si>
+    <t>0102</t>
+  </si>
+  <si>
+    <t>0103</t>
+  </si>
+  <si>
+    <t>0104</t>
+  </si>
+  <si>
+    <t>0105</t>
+  </si>
+  <si>
+    <t>0106</t>
+  </si>
+  <si>
+    <t>0201</t>
+  </si>
+  <si>
+    <t>0202</t>
+  </si>
+  <si>
+    <t>0203</t>
+  </si>
+  <si>
+    <t>0204</t>
+  </si>
+  <si>
+    <t>0205</t>
+  </si>
+  <si>
+    <t>0206</t>
+  </si>
+  <si>
+    <t>0207</t>
+  </si>
+  <si>
+    <t>0208</t>
+  </si>
+  <si>
+    <t>0209</t>
+  </si>
+  <si>
+    <t>0210</t>
+  </si>
+  <si>
+    <t>0301</t>
+  </si>
+  <si>
+    <t>0302</t>
+  </si>
+  <si>
+    <t>0303</t>
+  </si>
+  <si>
+    <t>0304</t>
+  </si>
+  <si>
+    <t>0305</t>
+  </si>
+  <si>
+    <t>0306</t>
+  </si>
+  <si>
+    <t>0307</t>
+  </si>
+  <si>
+    <t>0308</t>
+  </si>
+  <si>
+    <t>0309</t>
+  </si>
+  <si>
+    <t>0401</t>
+  </si>
+  <si>
+    <t>0402</t>
+  </si>
+  <si>
+    <t>0403</t>
+  </si>
+  <si>
+    <t>0404</t>
+  </si>
+  <si>
+    <t>0405</t>
+  </si>
+  <si>
+    <t>0406</t>
+  </si>
+  <si>
+    <t>0407</t>
+  </si>
+  <si>
+    <t>0408</t>
+  </si>
+  <si>
+    <t>0409</t>
+  </si>
+  <si>
+    <t>0410</t>
+  </si>
+  <si>
+    <t>0501</t>
+  </si>
+  <si>
+    <t>0502</t>
+  </si>
+  <si>
+    <t>0503</t>
+  </si>
+  <si>
+    <t>0504</t>
+  </si>
+  <si>
+    <t>0505</t>
+  </si>
+  <si>
+    <t>0506</t>
+  </si>
+  <si>
+    <t>0507</t>
+  </si>
+  <si>
+    <t>0508</t>
+  </si>
+  <si>
+    <t>0509</t>
+  </si>
+  <si>
+    <t>0510</t>
+  </si>
+  <si>
+    <t>0511</t>
+  </si>
+  <si>
+    <t>0601</t>
+  </si>
+  <si>
+    <t>0602</t>
+  </si>
+  <si>
+    <t>0603</t>
+  </si>
+  <si>
+    <t>0604</t>
+  </si>
+  <si>
+    <t>0701</t>
+  </si>
+  <si>
+    <t>0702</t>
+  </si>
+  <si>
+    <t>7030</t>
+  </si>
+  <si>
+    <t>0704</t>
+  </si>
+  <si>
+    <t>0705</t>
+  </si>
+  <si>
+    <t>0706</t>
+  </si>
+  <si>
+    <t>0707</t>
+  </si>
+  <si>
+    <t>0708</t>
+  </si>
+  <si>
+    <t>0709</t>
+  </si>
+  <si>
+    <t>0710</t>
+  </si>
+  <si>
+    <t>0711</t>
+  </si>
+  <si>
+    <t>0712</t>
+  </si>
+  <si>
+    <t>0713</t>
+  </si>
+  <si>
+    <t>0714</t>
+  </si>
+  <si>
+    <t>0801</t>
+  </si>
+  <si>
+    <t>0802</t>
+  </si>
+  <si>
+    <t>0803</t>
+  </si>
+  <si>
+    <t>0804</t>
+  </si>
+  <si>
+    <t>0805</t>
+  </si>
+  <si>
+    <t>0806</t>
+  </si>
+  <si>
+    <t>0807</t>
+  </si>
+  <si>
+    <t>0808</t>
+  </si>
+  <si>
+    <t>0809</t>
+  </si>
+  <si>
+    <t>0810</t>
+  </si>
+  <si>
+    <t>0811</t>
+  </si>
+  <si>
+    <t>0812</t>
+  </si>
+  <si>
+    <t>0813</t>
+  </si>
+  <si>
+    <t>0814</t>
+  </si>
+  <si>
+    <t>0901</t>
+  </si>
+  <si>
+    <t>0902</t>
+  </si>
+  <si>
+    <t>0903</t>
+  </si>
+  <si>
+    <t>0904</t>
+  </si>
+  <si>
+    <t>0905</t>
+  </si>
+  <si>
+    <t>0906</t>
+  </si>
+  <si>
+    <t>0907</t>
+  </si>
+  <si>
+    <t>0908</t>
+  </si>
+  <si>
+    <t>0909</t>
+  </si>
+  <si>
+    <t>0910</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -771,6 +1035,12 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -798,15 +1068,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="13">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="2"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -814,6 +1082,11 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="11" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="49" fontId="8" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1131,15 +1404,15 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:AF198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A65" activePane="bottomLeft" state="frozen"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="106" zoomScaleNormal="106" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="D1" sqref="D1"/>
-      <selection pane="bottomLeft" activeCell="F72" sqref="F72"/>
+      <selection pane="bottomLeft" activeCell="R17" sqref="R17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="15.7109375" style="12" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="142.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.5703125" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="11.7109375" bestFit="1" customWidth="1"/>
@@ -1159,37 +1432,37 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A1" s="10" t="s">
+      <c r="A1" s="15" t="s">
         <v>2</v>
       </c>
       <c r="B1" t="s">
         <v>183</v>
       </c>
-      <c r="C1" s="12" t="s">
+      <c r="C1" s="10" t="s">
         <v>184</v>
       </c>
-      <c r="D1" s="12" t="s">
+      <c r="D1" s="10" t="s">
         <v>185</v>
       </c>
-      <c r="E1" s="12" t="s">
+      <c r="E1" s="10" t="s">
         <v>186</v>
       </c>
-      <c r="F1" s="12" t="s">
+      <c r="F1" s="10" t="s">
         <v>187</v>
       </c>
-      <c r="G1" s="12" t="s">
+      <c r="G1" s="10" t="s">
         <v>188</v>
       </c>
-      <c r="H1" s="10" t="s">
+      <c r="H1" s="8" t="s">
         <v>189</v>
       </c>
-      <c r="I1" s="12" t="s">
+      <c r="I1" s="10" t="s">
         <v>190</v>
       </c>
-      <c r="J1" s="12" t="s">
+      <c r="J1" s="10" t="s">
         <v>191</v>
       </c>
-      <c r="K1" s="12" t="s">
+      <c r="K1" s="10" t="s">
         <v>192</v>
       </c>
       <c r="L1" t="s">
@@ -1239,10 +1512,10 @@
       </c>
     </row>
     <row r="2" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A2" s="3">
-        <v>101</v>
-      </c>
-      <c r="B2" s="11" t="s">
+      <c r="A2" s="11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B2" s="9" t="s">
         <v>3</v>
       </c>
       <c r="C2" t="s">
@@ -1317,15 +1590,15 @@
       <c r="Z2" t="s">
         <v>1</v>
       </c>
-      <c r="AB2" s="11"/>
-      <c r="AC2" s="11"/>
-      <c r="AD2" s="11"/>
+      <c r="AB2" s="9"/>
+      <c r="AC2" s="9"/>
+      <c r="AD2" s="9"/>
     </row>
     <row r="3" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A3">
-        <v>102</v>
-      </c>
-      <c r="B3" s="11" t="s">
+      <c r="A3" s="12" t="s">
+        <v>223</v>
+      </c>
+      <c r="B3" s="9" t="s">
         <v>4</v>
       </c>
       <c r="C3" t="s">
@@ -1400,15 +1673,15 @@
       <c r="Z3" t="s">
         <v>1</v>
       </c>
-      <c r="AB3" s="11"/>
-      <c r="AC3" s="11"/>
-      <c r="AD3" s="11"/>
+      <c r="AB3" s="9"/>
+      <c r="AC3" s="9"/>
+      <c r="AD3" s="9"/>
     </row>
     <row r="4" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>103</v>
-      </c>
-      <c r="B4" s="11" t="s">
+      <c r="A4" s="12" t="s">
+        <v>224</v>
+      </c>
+      <c r="B4" s="9" t="s">
         <v>5</v>
       </c>
       <c r="C4" t="s">
@@ -1483,15 +1756,15 @@
       <c r="Z4" t="s">
         <v>1</v>
       </c>
-      <c r="AB4" s="11"/>
-      <c r="AC4" s="11"/>
-      <c r="AD4" s="11"/>
+      <c r="AB4" s="9"/>
+      <c r="AC4" s="9"/>
+      <c r="AD4" s="9"/>
     </row>
     <row r="5" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A5">
-        <v>104</v>
-      </c>
-      <c r="B5" s="11" t="s">
+      <c r="A5" s="12" t="s">
+        <v>225</v>
+      </c>
+      <c r="B5" s="9" t="s">
         <v>6</v>
       </c>
       <c r="C5" t="s">
@@ -1566,15 +1839,15 @@
       <c r="Z5" t="s">
         <v>1</v>
       </c>
-      <c r="AB5" s="11"/>
-      <c r="AC5" s="11"/>
-      <c r="AD5" s="11"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9"/>
+      <c r="AD5" s="9"/>
     </row>
     <row r="6" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6">
-        <v>105</v>
-      </c>
-      <c r="B6" s="11" t="s">
+      <c r="A6" s="12" t="s">
+        <v>226</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>7</v>
       </c>
       <c r="C6" t="s">
@@ -1649,15 +1922,15 @@
       <c r="Z6" t="s">
         <v>1</v>
       </c>
-      <c r="AB6" s="11"/>
-      <c r="AC6" s="11"/>
-      <c r="AD6" s="11"/>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9"/>
+      <c r="AD6" s="9"/>
     </row>
     <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7">
-        <v>106</v>
-      </c>
-      <c r="B7" s="11" t="s">
+      <c r="A7" s="12" t="s">
+        <v>227</v>
+      </c>
+      <c r="B7" s="9" t="s">
         <v>8</v>
       </c>
       <c r="C7" t="s">
@@ -1732,15 +2005,15 @@
       <c r="Z7" t="s">
         <v>1</v>
       </c>
-      <c r="AB7" s="11"/>
-      <c r="AC7" s="11"/>
-      <c r="AD7" s="11"/>
+      <c r="AB7" s="9"/>
+      <c r="AC7" s="9"/>
+      <c r="AD7" s="9"/>
     </row>
     <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8">
-        <v>201</v>
-      </c>
-      <c r="B8" s="11" t="s">
+      <c r="A8" s="12" t="s">
+        <v>228</v>
+      </c>
+      <c r="B8" s="9" t="s">
         <v>9</v>
       </c>
       <c r="C8" t="s">
@@ -1815,15 +2088,15 @@
       <c r="Z8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" s="11"/>
-      <c r="AC8" s="11"/>
-      <c r="AD8" s="11"/>
+      <c r="AB8" s="9"/>
+      <c r="AC8" s="9"/>
+      <c r="AD8" s="9"/>
     </row>
     <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9">
-        <v>202</v>
-      </c>
-      <c r="B9" s="11" t="s">
+      <c r="A9" s="12" t="s">
+        <v>229</v>
+      </c>
+      <c r="B9" s="9" t="s">
         <v>10</v>
       </c>
       <c r="C9" t="s">
@@ -1898,15 +2171,15 @@
       <c r="Z9" t="s">
         <v>1</v>
       </c>
-      <c r="AB9" s="11"/>
-      <c r="AC9" s="11"/>
-      <c r="AD9" s="11"/>
+      <c r="AB9" s="9"/>
+      <c r="AC9" s="9"/>
+      <c r="AD9" s="9"/>
     </row>
     <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10">
-        <v>203</v>
-      </c>
-      <c r="B10" s="11" t="s">
+      <c r="A10" s="12" t="s">
+        <v>230</v>
+      </c>
+      <c r="B10" s="9" t="s">
         <v>11</v>
       </c>
       <c r="C10">
@@ -1966,6 +2239,9 @@
       <c r="U10">
         <v>0</v>
       </c>
+      <c r="V10" t="s">
+        <v>1</v>
+      </c>
       <c r="W10">
         <v>19</v>
       </c>
@@ -1981,27 +2257,27 @@
       <c r="AA10" t="s">
         <v>1</v>
       </c>
-      <c r="AB10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE10" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF10" s="11" t="s">
+      <c r="AB10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE10" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF10" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11">
-        <v>204</v>
-      </c>
-      <c r="B11" s="11" t="s">
+      <c r="A11" s="12" t="s">
+        <v>231</v>
+      </c>
+      <c r="B11" s="9" t="s">
         <v>12</v>
       </c>
       <c r="C11">
@@ -2079,27 +2355,27 @@
       <c r="AA11" t="s">
         <v>1</v>
       </c>
-      <c r="AB11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE11" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF11" s="11" t="s">
+      <c r="AB11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE11" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF11" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12">
-        <v>205</v>
-      </c>
-      <c r="B12" s="11" t="s">
+      <c r="A12" s="12" t="s">
+        <v>232</v>
+      </c>
+      <c r="B12" s="9" t="s">
         <v>13</v>
       </c>
       <c r="C12">
@@ -2177,27 +2453,27 @@
       <c r="AA12" t="s">
         <v>1</v>
       </c>
-      <c r="AB12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE12" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF12" s="11" t="s">
+      <c r="AB12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE12" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF12" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13">
-        <v>206</v>
-      </c>
-      <c r="B13" s="11" t="s">
+      <c r="A13" s="12" t="s">
+        <v>233</v>
+      </c>
+      <c r="B13" s="9" t="s">
         <v>14</v>
       </c>
       <c r="C13" t="s">
@@ -2275,27 +2551,27 @@
       <c r="AA13" t="s">
         <v>1</v>
       </c>
-      <c r="AB13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE13" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF13" s="11" t="s">
+      <c r="AB13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE13" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF13" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14">
-        <v>207</v>
-      </c>
-      <c r="B14" s="11" t="s">
+      <c r="A14" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B14" s="9" t="s">
         <v>15</v>
       </c>
       <c r="C14" t="s">
@@ -2373,27 +2649,27 @@
       <c r="AA14" t="s">
         <v>1</v>
       </c>
-      <c r="AB14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE14" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF14" s="11" t="s">
+      <c r="AB14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE14" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF14" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15">
-        <v>207</v>
-      </c>
-      <c r="B15" s="11" t="s">
+      <c r="A15" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B15" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C15">
@@ -2471,27 +2747,27 @@
       <c r="AA15" t="s">
         <v>1</v>
       </c>
-      <c r="AB15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE15" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF15" s="11" t="s">
+      <c r="AB15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE15" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF15" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="16" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16">
-        <v>207</v>
-      </c>
-      <c r="B16" s="11" t="s">
+      <c r="A16" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B16" s="9" t="s">
         <v>17</v>
       </c>
       <c r="C16">
@@ -2569,27 +2845,27 @@
       <c r="AA16" t="s">
         <v>1</v>
       </c>
-      <c r="AB16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE16" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF16" s="11" t="s">
+      <c r="AB16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE16" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF16" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.95" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17">
-        <v>207</v>
-      </c>
-      <c r="B17" s="11" t="s">
+      <c r="A17" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B17" s="9" t="s">
         <v>18</v>
       </c>
       <c r="C17">
@@ -2667,27 +2943,27 @@
       <c r="AA17" t="s">
         <v>1</v>
       </c>
-      <c r="AB17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE17" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF17" s="11" t="s">
+      <c r="AB17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE17" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF17" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A18">
-        <v>207</v>
-      </c>
-      <c r="B18" s="11" t="s">
+      <c r="A18" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B18" s="9" t="s">
         <v>19</v>
       </c>
       <c r="C18">
@@ -2765,27 +3041,27 @@
       <c r="AA18" t="s">
         <v>1</v>
       </c>
-      <c r="AB18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE18" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF18" s="11" t="s">
+      <c r="AB18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE18" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF18" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A19">
-        <v>207</v>
-      </c>
-      <c r="B19" s="11" t="s">
+      <c r="A19" s="12" t="s">
+        <v>234</v>
+      </c>
+      <c r="B19" s="9" t="s">
         <v>20</v>
       </c>
       <c r="C19">
@@ -2863,27 +3139,27 @@
       <c r="AA19" t="s">
         <v>1</v>
       </c>
-      <c r="AB19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE19" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF19" s="11" t="s">
+      <c r="AB19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE19" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF19" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A20">
-        <v>208</v>
-      </c>
-      <c r="B20" s="11" t="s">
+      <c r="A20" s="12" t="s">
+        <v>235</v>
+      </c>
+      <c r="B20" s="9" t="s">
         <v>21</v>
       </c>
       <c r="C20" t="s">
@@ -2961,27 +3237,27 @@
       <c r="AA20" t="s">
         <v>1</v>
       </c>
-      <c r="AB20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE20" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF20" s="11" t="s">
+      <c r="AB20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE20" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF20" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="21" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>209</v>
-      </c>
-      <c r="B21" s="11" t="s">
+      <c r="A21" s="12" t="s">
+        <v>236</v>
+      </c>
+      <c r="B21" s="9" t="s">
         <v>22</v>
       </c>
       <c r="C21">
@@ -3011,7 +3287,7 @@
       <c r="K21">
         <v>0</v>
       </c>
-      <c r="L21" s="7">
+      <c r="L21" s="5">
         <v>171401</v>
       </c>
       <c r="M21">
@@ -3059,27 +3335,27 @@
       <c r="AA21" t="s">
         <v>1</v>
       </c>
-      <c r="AB21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE21" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF21" s="11" t="s">
+      <c r="AB21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE21" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF21" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="22" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A22">
-        <v>210</v>
-      </c>
-      <c r="B22" s="11" t="s">
+      <c r="A22" s="12" t="s">
+        <v>237</v>
+      </c>
+      <c r="B22" s="9" t="s">
         <v>23</v>
       </c>
       <c r="C22">
@@ -3157,27 +3433,27 @@
       <c r="AA22" t="s">
         <v>1</v>
       </c>
-      <c r="AB22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE22" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF22" s="11" t="s">
+      <c r="AB22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE22" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF22" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="23" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A23">
-        <v>301</v>
-      </c>
-      <c r="B23" s="11" t="s">
+      <c r="A23" s="12" t="s">
+        <v>238</v>
+      </c>
+      <c r="B23" s="9" t="s">
         <v>24</v>
       </c>
       <c r="C23" t="s">
@@ -3255,27 +3531,27 @@
       <c r="AA23" t="s">
         <v>1</v>
       </c>
-      <c r="AB23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE23" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF23" s="11" t="s">
+      <c r="AB23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE23" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF23" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="24" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>302</v>
-      </c>
-      <c r="B24" s="11" t="s">
+      <c r="A24" s="12" t="s">
+        <v>239</v>
+      </c>
+      <c r="B24" s="9" t="s">
         <v>25</v>
       </c>
       <c r="C24">
@@ -3353,27 +3629,27 @@
       <c r="AA24" t="s">
         <v>1</v>
       </c>
-      <c r="AB24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE24" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF24" s="11" t="s">
+      <c r="AB24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE24" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF24" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A25">
-        <v>303</v>
-      </c>
-      <c r="B25" s="11" t="s">
+      <c r="A25" s="12" t="s">
+        <v>240</v>
+      </c>
+      <c r="B25" s="9" t="s">
         <v>26</v>
       </c>
       <c r="C25">
@@ -3451,27 +3727,27 @@
       <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE25" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF25" s="11" t="s">
+      <c r="AB25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE25" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF25" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A26">
-        <v>304</v>
-      </c>
-      <c r="B26" s="11" t="s">
+      <c r="A26" s="12" t="s">
+        <v>241</v>
+      </c>
+      <c r="B26" s="9" t="s">
         <v>27</v>
       </c>
       <c r="C26">
@@ -3549,27 +3825,27 @@
       <c r="AA26" t="s">
         <v>1</v>
       </c>
-      <c r="AB26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE26" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF26" s="11" t="s">
+      <c r="AB26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE26" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF26" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A27">
-        <v>305</v>
-      </c>
-      <c r="B27" s="11" t="s">
+      <c r="A27" s="12" t="s">
+        <v>242</v>
+      </c>
+      <c r="B27" s="9" t="s">
         <v>28</v>
       </c>
       <c r="C27">
@@ -3647,27 +3923,27 @@
       <c r="AA27" t="s">
         <v>1</v>
       </c>
-      <c r="AB27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE27" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF27" s="11" t="s">
+      <c r="AB27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE27" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF27" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="28" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A28">
-        <v>306</v>
-      </c>
-      <c r="B28" s="11" t="s">
+      <c r="A28" s="12" t="s">
+        <v>243</v>
+      </c>
+      <c r="B28" s="9" t="s">
         <v>29</v>
       </c>
       <c r="C28">
@@ -3745,27 +4021,27 @@
       <c r="AA28" t="s">
         <v>1</v>
       </c>
-      <c r="AB28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE28" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF28" s="11" t="s">
+      <c r="AB28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE28" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF28" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A29">
-        <v>307</v>
-      </c>
-      <c r="B29" s="11" t="s">
+      <c r="A29" s="12" t="s">
+        <v>244</v>
+      </c>
+      <c r="B29" s="9" t="s">
         <v>30</v>
       </c>
       <c r="C29">
@@ -3843,27 +4119,27 @@
       <c r="AA29" t="s">
         <v>1</v>
       </c>
-      <c r="AB29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE29" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF29" s="11" t="s">
+      <c r="AB29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE29" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF29" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="30" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A30">
-        <v>308</v>
-      </c>
-      <c r="B30" s="11" t="s">
+      <c r="A30" s="12" t="s">
+        <v>245</v>
+      </c>
+      <c r="B30" s="9" t="s">
         <v>31</v>
       </c>
       <c r="C30">
@@ -3941,27 +4217,27 @@
       <c r="AA30" t="s">
         <v>1</v>
       </c>
-      <c r="AB30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE30" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF30" s="11" t="s">
+      <c r="AB30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE30" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF30" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="31" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A31">
-        <v>309</v>
-      </c>
-      <c r="B31" s="11" t="s">
+      <c r="A31" s="12" t="s">
+        <v>246</v>
+      </c>
+      <c r="B31" s="9" t="s">
         <v>32</v>
       </c>
       <c r="C31" t="s">
@@ -4039,27 +4315,27 @@
       <c r="AA31" t="s">
         <v>1</v>
       </c>
-      <c r="AB31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE31" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF31" s="11" t="s">
+      <c r="AB31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE31" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF31" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="32" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>401</v>
-      </c>
-      <c r="B32" s="11" t="s">
+      <c r="A32" s="12" t="s">
+        <v>247</v>
+      </c>
+      <c r="B32" s="9" t="s">
         <v>33</v>
       </c>
       <c r="C32">
@@ -4089,7 +4365,7 @@
       <c r="K32">
         <v>0</v>
       </c>
-      <c r="L32" s="7">
+      <c r="L32" s="5">
         <v>746782</v>
       </c>
       <c r="M32">
@@ -4137,27 +4413,27 @@
       <c r="AA32" t="s">
         <v>1</v>
       </c>
-      <c r="AB32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE32" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF32" s="11" t="s">
+      <c r="AB32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE32" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF32" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="33" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>402</v>
-      </c>
-      <c r="B33" s="11" t="s">
+      <c r="A33" s="12" t="s">
+        <v>248</v>
+      </c>
+      <c r="B33" s="9" t="s">
         <v>34</v>
       </c>
       <c r="C33">
@@ -4187,7 +4463,7 @@
       <c r="K33">
         <v>0</v>
       </c>
-      <c r="L33" s="7">
+      <c r="L33" s="5">
         <v>172194</v>
       </c>
       <c r="M33">
@@ -4235,27 +4511,27 @@
       <c r="AA33" t="s">
         <v>1</v>
       </c>
-      <c r="AB33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE33" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF33" s="11" t="s">
+      <c r="AB33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE33" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF33" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="34" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A34" s="5">
-        <v>403</v>
-      </c>
-      <c r="B34" s="11" t="s">
+      <c r="A34" s="13" t="s">
+        <v>249</v>
+      </c>
+      <c r="B34" s="9" t="s">
         <v>35</v>
       </c>
       <c r="C34">
@@ -4285,7 +4561,7 @@
       <c r="K34">
         <v>0</v>
       </c>
-      <c r="L34" s="7">
+      <c r="L34" s="5">
         <v>2259793</v>
       </c>
       <c r="M34">
@@ -4333,27 +4609,27 @@
       <c r="AA34" t="s">
         <v>1</v>
       </c>
-      <c r="AB34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE34" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF34" s="11" t="s">
+      <c r="AB34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE34" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF34" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="35" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>404</v>
-      </c>
-      <c r="B35" s="11" t="s">
+      <c r="A35" s="12" t="s">
+        <v>250</v>
+      </c>
+      <c r="B35" s="9" t="s">
         <v>36</v>
       </c>
       <c r="C35">
@@ -4383,7 +4659,7 @@
       <c r="K35">
         <v>0</v>
       </c>
-      <c r="L35" s="7">
+      <c r="L35" s="5">
         <v>173177</v>
       </c>
       <c r="M35">
@@ -4431,27 +4707,27 @@
       <c r="AA35" t="s">
         <v>1</v>
       </c>
-      <c r="AB35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE35" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF35" s="11" t="s">
+      <c r="AB35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE35" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF35" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="36" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>405</v>
-      </c>
-      <c r="B36" s="11" t="s">
+      <c r="A36" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="B36" s="9" t="s">
         <v>37</v>
       </c>
       <c r="C36">
@@ -4481,7 +4757,7 @@
       <c r="K36">
         <v>0</v>
       </c>
-      <c r="L36" s="7">
+      <c r="L36" s="5">
         <v>173430</v>
       </c>
       <c r="M36">
@@ -4529,27 +4805,27 @@
       <c r="AA36" t="s">
         <v>1</v>
       </c>
-      <c r="AB36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE36" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF36" s="11" t="s">
+      <c r="AB36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE36" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF36" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="37" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A37">
-        <v>406</v>
-      </c>
-      <c r="B37" s="11" t="s">
+      <c r="A37" s="12" t="s">
+        <v>252</v>
+      </c>
+      <c r="B37" s="9" t="s">
         <v>38</v>
       </c>
       <c r="C37">
@@ -4579,7 +4855,7 @@
       <c r="K37">
         <v>0</v>
       </c>
-      <c r="L37" s="7">
+      <c r="L37" s="5">
         <v>328637</v>
       </c>
       <c r="M37">
@@ -4627,27 +4903,27 @@
       <c r="AA37" t="s">
         <v>1</v>
       </c>
-      <c r="AB37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE37" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF37" s="11" t="s">
+      <c r="AB37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE37" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF37" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="38" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A38">
-        <v>407</v>
-      </c>
-      <c r="B38" s="11" t="s">
+      <c r="A38" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="B38" s="9" t="s">
         <v>39</v>
       </c>
       <c r="C38">
@@ -4677,7 +4953,7 @@
       <c r="K38">
         <v>0</v>
       </c>
-      <c r="L38" s="7">
+      <c r="L38" s="5">
         <v>748967</v>
       </c>
       <c r="M38">
@@ -4725,27 +5001,27 @@
       <c r="AA38" t="s">
         <v>1</v>
       </c>
-      <c r="AB38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE38" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF38" s="11" t="s">
+      <c r="AB38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE38" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF38" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A39">
-        <v>408</v>
-      </c>
-      <c r="B39" s="11" t="s">
+    <row r="39" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A39" s="12" t="s">
+        <v>254</v>
+      </c>
+      <c r="B39" s="9" t="s">
         <v>40</v>
       </c>
       <c r="C39">
@@ -4775,7 +5051,7 @@
       <c r="K39">
         <v>0</v>
       </c>
-      <c r="L39" s="7">
+      <c r="L39" s="5">
         <v>172188</v>
       </c>
       <c r="M39">
@@ -4823,27 +5099,27 @@
       <c r="AA39" t="s">
         <v>1</v>
       </c>
-      <c r="AB39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE39" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF39" s="11" t="s">
+      <c r="AB39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE39" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF39" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="40" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A40">
-        <v>409</v>
-      </c>
-      <c r="B40" s="11" t="s">
+      <c r="A40" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="B40" s="9" t="s">
         <v>41</v>
       </c>
       <c r="C40">
@@ -4921,27 +5197,27 @@
       <c r="AA40" t="s">
         <v>1</v>
       </c>
-      <c r="AB40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE40" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF40" s="11" t="s">
+      <c r="AB40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE40" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF40" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="41" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A41">
-        <v>410</v>
-      </c>
-      <c r="B41" s="11" t="s">
+      <c r="A41" s="12" t="s">
+        <v>256</v>
+      </c>
+      <c r="B41" s="9" t="s">
         <v>42</v>
       </c>
       <c r="C41" t="s">
@@ -5019,27 +5295,27 @@
       <c r="AA41" t="s">
         <v>1</v>
       </c>
-      <c r="AB41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE41" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF41" s="11" t="s">
+      <c r="AB41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE41" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF41" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="42" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A42">
-        <v>501</v>
-      </c>
-      <c r="B42" s="11" t="s">
+      <c r="A42" s="12" t="s">
+        <v>257</v>
+      </c>
+      <c r="B42" s="9" t="s">
         <v>43</v>
       </c>
       <c r="C42" t="s">
@@ -5117,27 +5393,27 @@
       <c r="AA42" t="s">
         <v>1</v>
       </c>
-      <c r="AB42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE42" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF42" s="11" t="s">
+      <c r="AB42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE42" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF42" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="43" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A43">
-        <v>502</v>
-      </c>
-      <c r="B43" s="11" t="s">
+      <c r="A43" s="12" t="s">
+        <v>258</v>
+      </c>
+      <c r="B43" s="9" t="s">
         <v>44</v>
       </c>
       <c r="C43" t="s">
@@ -5215,27 +5491,27 @@
       <c r="AA43" t="s">
         <v>1</v>
       </c>
-      <c r="AB43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE43" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF43" s="11" t="s">
+      <c r="AB43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE43" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF43" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="44" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A44">
-        <v>503</v>
-      </c>
-      <c r="B44" s="11" t="s">
+      <c r="A44" s="12" t="s">
+        <v>259</v>
+      </c>
+      <c r="B44" s="9" t="s">
         <v>45</v>
       </c>
       <c r="C44" t="s">
@@ -5313,27 +5589,27 @@
       <c r="AA44" t="s">
         <v>1</v>
       </c>
-      <c r="AB44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE44" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF44" s="11" t="s">
+      <c r="AB44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE44" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF44" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="45" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A45">
-        <v>504</v>
-      </c>
-      <c r="B45" s="11" t="s">
+      <c r="A45" s="12" t="s">
+        <v>260</v>
+      </c>
+      <c r="B45" s="9" t="s">
         <v>46</v>
       </c>
       <c r="C45">
@@ -5411,27 +5687,27 @@
       <c r="AA45" t="s">
         <v>1</v>
       </c>
-      <c r="AB45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE45" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF45" s="11" t="s">
+      <c r="AB45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE45" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF45" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="46" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A46">
-        <v>505</v>
-      </c>
-      <c r="B46" s="11" t="s">
+      <c r="A46" s="12" t="s">
+        <v>261</v>
+      </c>
+      <c r="B46" s="9" t="s">
         <v>47</v>
       </c>
       <c r="C46" t="s">
@@ -5509,27 +5785,27 @@
       <c r="AA46" t="s">
         <v>1</v>
       </c>
-      <c r="AB46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE46" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF46" s="11" t="s">
+      <c r="AB46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE46" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF46" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="47" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A47">
-        <v>506</v>
-      </c>
-      <c r="B47" s="11" t="s">
+      <c r="A47" s="12" t="s">
+        <v>262</v>
+      </c>
+      <c r="B47" s="9" t="s">
         <v>207</v>
       </c>
       <c r="C47" t="s">
@@ -5607,27 +5883,27 @@
       <c r="AA47" t="s">
         <v>1</v>
       </c>
-      <c r="AB47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE47" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF47" s="11" t="s">
+      <c r="AB47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE47" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF47" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="48" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A48">
-        <v>507</v>
-      </c>
-      <c r="B48" s="11" t="s">
+      <c r="A48" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="B48" s="9" t="s">
         <v>208</v>
       </c>
       <c r="C48" t="s">
@@ -5705,27 +5981,27 @@
       <c r="AA48" t="s">
         <v>1</v>
       </c>
-      <c r="AB48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE48" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF48" s="11" t="s">
+      <c r="AB48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE48" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF48" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="49" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A49">
-        <v>508</v>
-      </c>
-      <c r="B49" s="11" t="s">
+      <c r="A49" s="12" t="s">
+        <v>264</v>
+      </c>
+      <c r="B49" s="9" t="s">
         <v>48</v>
       </c>
       <c r="C49" t="s">
@@ -5803,27 +6079,27 @@
       <c r="AA49" t="s">
         <v>1</v>
       </c>
-      <c r="AB49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE49" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF49" s="11" t="s">
+      <c r="AB49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE49" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF49" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="50" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A50">
-        <v>509</v>
-      </c>
-      <c r="B50" s="11" t="s">
+      <c r="A50" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="B50" s="9" t="s">
         <v>49</v>
       </c>
       <c r="C50" t="s">
@@ -5901,27 +6177,27 @@
       <c r="AA50" t="s">
         <v>1</v>
       </c>
-      <c r="AB50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE50" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF50" s="11" t="s">
+      <c r="AB50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE50" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF50" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="51" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A51">
-        <v>510</v>
-      </c>
-      <c r="B51" s="11" t="s">
+      <c r="A51" s="12" t="s">
+        <v>266</v>
+      </c>
+      <c r="B51" s="9" t="s">
         <v>50</v>
       </c>
       <c r="C51" t="s">
@@ -5999,27 +6275,27 @@
       <c r="AA51" t="s">
         <v>1</v>
       </c>
-      <c r="AB51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE51" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF51" s="11" t="s">
+      <c r="AB51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE51" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF51" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="52" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A52">
-        <v>511</v>
-      </c>
-      <c r="B52" s="11" t="s">
+      <c r="A52" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="B52" s="9" t="s">
         <v>51</v>
       </c>
       <c r="C52" t="s">
@@ -6097,27 +6373,27 @@
       <c r="AA52" t="s">
         <v>1</v>
       </c>
-      <c r="AB52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE52" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF52" s="11" t="s">
+      <c r="AB52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE52" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF52" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="53" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A53">
-        <v>601</v>
-      </c>
-      <c r="B53" s="11" t="s">
+      <c r="A53" s="12" t="s">
+        <v>268</v>
+      </c>
+      <c r="B53" s="9" t="s">
         <v>52</v>
       </c>
       <c r="C53" t="s">
@@ -6195,27 +6471,27 @@
       <c r="AA53" t="s">
         <v>1</v>
       </c>
-      <c r="AB53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE53" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF53" s="11" t="s">
+      <c r="AB53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE53" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF53" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="54" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A54">
-        <v>602</v>
-      </c>
-      <c r="B54" s="11" t="s">
+      <c r="A54" s="12" t="s">
+        <v>269</v>
+      </c>
+      <c r="B54" s="9" t="s">
         <v>53</v>
       </c>
       <c r="C54" t="s">
@@ -6293,27 +6569,27 @@
       <c r="AA54" t="s">
         <v>1</v>
       </c>
-      <c r="AB54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE54" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF54" s="11" t="s">
+      <c r="AB54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE54" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF54" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="55" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A55">
-        <v>603</v>
-      </c>
-      <c r="B55" s="11" t="s">
+      <c r="A55" s="12" t="s">
+        <v>270</v>
+      </c>
+      <c r="B55" s="9" t="s">
         <v>54</v>
       </c>
       <c r="C55" t="s">
@@ -6391,27 +6667,27 @@
       <c r="AA55" t="s">
         <v>1</v>
       </c>
-      <c r="AB55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE55" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF55" s="11" t="s">
+      <c r="AB55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE55" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF55" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="56" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A56">
-        <v>604</v>
-      </c>
-      <c r="B56" s="11" t="s">
+      <c r="A56" s="12" t="s">
+        <v>271</v>
+      </c>
+      <c r="B56" s="9" t="s">
         <v>55</v>
       </c>
       <c r="C56" t="s">
@@ -6489,27 +6765,27 @@
       <c r="AA56" t="s">
         <v>1</v>
       </c>
-      <c r="AB56" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC56" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD56" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE56" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF56" s="11" t="s">
+      <c r="AB56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE56" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF56" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="57" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A57">
-        <v>701</v>
-      </c>
-      <c r="B57" s="11" t="s">
+      <c r="A57" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B57" s="9" t="s">
         <v>56</v>
       </c>
       <c r="C57">
@@ -6587,27 +6863,27 @@
       <c r="AA57" t="s">
         <v>1</v>
       </c>
-      <c r="AB57" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC57" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD57" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE57" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF57" s="11" t="s">
+      <c r="AB57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE57" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF57" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="58" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A58">
-        <v>701</v>
-      </c>
-      <c r="B58" s="11" t="s">
+      <c r="A58" s="12" t="s">
+        <v>272</v>
+      </c>
+      <c r="B58" s="9" t="s">
         <v>0</v>
       </c>
       <c r="C58">
@@ -6637,46 +6913,46 @@
       <c r="K58">
         <v>0</v>
       </c>
-      <c r="L58" s="11">
+      <c r="L58" s="9">
         <v>168442</v>
       </c>
-      <c r="M58" s="11">
+      <c r="M58" s="9">
         <v>147</v>
       </c>
-      <c r="N58" s="11">
+      <c r="N58" s="9">
         <v>4.7</v>
       </c>
-      <c r="O58" s="11">
+      <c r="O58" s="9">
         <v>2.2000000000000002</v>
       </c>
-      <c r="P58" s="11">
-        <v>1</v>
-      </c>
-      <c r="Q58" s="11">
-        <v>0</v>
-      </c>
-      <c r="R58" s="11">
+      <c r="P58" s="9">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="9">
+        <v>0</v>
+      </c>
+      <c r="R58" s="9">
         <v>332</v>
       </c>
-      <c r="S58" s="11">
+      <c r="S58" s="9">
         <v>24.8</v>
       </c>
-      <c r="T58" s="11">
+      <c r="T58" s="9">
         <v>1.9</v>
       </c>
-      <c r="U58" s="11">
-        <v>0</v>
-      </c>
-      <c r="V58" s="11">
-        <v>0</v>
-      </c>
-      <c r="W58" s="11">
+      <c r="U58" s="9">
+        <v>0</v>
+      </c>
+      <c r="V58" s="9">
+        <v>0</v>
+      </c>
+      <c r="W58" s="9">
         <v>9</v>
       </c>
-      <c r="X58" s="11">
+      <c r="X58" s="9">
         <v>408</v>
       </c>
-      <c r="Y58" s="11">
+      <c r="Y58" s="9">
         <v>0.6</v>
       </c>
       <c r="Z58" t="s">
@@ -6685,27 +6961,27 @@
       <c r="AA58" t="s">
         <v>1</v>
       </c>
-      <c r="AB58" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC58" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD58" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE58" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF58" s="11" t="s">
+      <c r="AB58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE58" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF58" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="59" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A59">
-        <v>702</v>
-      </c>
-      <c r="B59" s="11" t="s">
+      <c r="A59" s="12" t="s">
+        <v>273</v>
+      </c>
+      <c r="B59" s="9" t="s">
         <v>57</v>
       </c>
       <c r="C59">
@@ -6783,27 +7059,27 @@
       <c r="AA59" t="s">
         <v>1</v>
       </c>
-      <c r="AB59" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC59" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD59" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE59" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF59" s="11" t="s">
+      <c r="AB59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE59" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF59" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="60" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A60">
-        <v>703</v>
-      </c>
-      <c r="B60" s="11" t="s">
+      <c r="A60" s="12" t="s">
+        <v>274</v>
+      </c>
+      <c r="B60" s="9" t="s">
         <v>58</v>
       </c>
       <c r="C60">
@@ -6881,27 +7157,27 @@
       <c r="AA60" t="s">
         <v>1</v>
       </c>
-      <c r="AB60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE60" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF60" s="11" t="s">
+      <c r="AB60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE60" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF60" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="61" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A61">
-        <v>704</v>
-      </c>
-      <c r="B61" s="11" t="s">
+      <c r="A61" s="12" t="s">
+        <v>275</v>
+      </c>
+      <c r="B61" s="9" t="s">
         <v>59</v>
       </c>
       <c r="C61">
@@ -6979,27 +7255,27 @@
       <c r="AA61" t="s">
         <v>1</v>
       </c>
-      <c r="AB61" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC61" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD61" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE61" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF61" s="11" t="s">
+      <c r="AB61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE61" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF61" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="62" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A62" s="5">
-        <v>705</v>
-      </c>
-      <c r="B62" s="11" t="s">
+    <row r="62" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A62" s="14" t="s">
+        <v>276</v>
+      </c>
+      <c r="B62" s="9" t="s">
         <v>60</v>
       </c>
       <c r="C62">
@@ -7029,7 +7305,7 @@
       <c r="K62">
         <v>0</v>
       </c>
-      <c r="L62" s="7">
+      <c r="L62" s="5">
         <v>169249</v>
       </c>
       <c r="M62">
@@ -7077,27 +7353,27 @@
       <c r="AA62" t="s">
         <v>1</v>
       </c>
-      <c r="AB62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE62" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF62" s="11" t="s">
+      <c r="AB62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE62" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF62" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="63" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A63" s="5">
-        <v>706</v>
-      </c>
-      <c r="B63" s="11" t="s">
+    <row r="63" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A63" s="14" t="s">
+        <v>277</v>
+      </c>
+      <c r="B63" s="9" t="s">
         <v>61</v>
       </c>
       <c r="C63">
@@ -7127,7 +7403,7 @@
       <c r="K63">
         <v>0</v>
       </c>
-      <c r="L63" s="7">
+      <c r="L63" s="5">
         <v>170393</v>
       </c>
       <c r="M63">
@@ -7175,27 +7451,27 @@
       <c r="AA63" t="s">
         <v>1</v>
       </c>
-      <c r="AB63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE63" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF63" s="11" t="s">
+      <c r="AB63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE63" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF63" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="64" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A64">
-        <v>707</v>
-      </c>
-      <c r="B64" s="11" t="s">
+      <c r="A64" s="12" t="s">
+        <v>278</v>
+      </c>
+      <c r="B64" s="9" t="s">
         <v>62</v>
       </c>
       <c r="C64">
@@ -7273,27 +7549,27 @@
       <c r="AA64" t="s">
         <v>1</v>
       </c>
-      <c r="AB64" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC64" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD64" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE64" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF64" s="11" t="s">
+      <c r="AB64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE64" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF64" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="65" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A65">
-        <v>708</v>
-      </c>
-      <c r="B65" s="11" t="s">
+      <c r="A65" s="12" t="s">
+        <v>279</v>
+      </c>
+      <c r="B65" s="9" t="s">
         <v>63</v>
       </c>
       <c r="C65">
@@ -7371,27 +7647,27 @@
       <c r="AA65" t="s">
         <v>1</v>
       </c>
-      <c r="AB65" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC65" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD65" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE65" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF65" s="11" t="s">
+      <c r="AB65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE65" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF65" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="66" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A66">
-        <v>709</v>
-      </c>
-      <c r="B66" s="11" t="s">
+      <c r="A66" s="12" t="s">
+        <v>280</v>
+      </c>
+      <c r="B66" s="9" t="s">
         <v>64</v>
       </c>
       <c r="C66" t="s">
@@ -7469,27 +7745,27 @@
       <c r="AA66" t="s">
         <v>1</v>
       </c>
-      <c r="AB66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE66" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF66" s="11" t="s">
+      <c r="AB66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE66" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF66" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="67" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A67">
-        <v>710</v>
-      </c>
-      <c r="B67" s="11" t="s">
+    <row r="67" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A67" s="12" t="s">
+        <v>281</v>
+      </c>
+      <c r="B67" s="9" t="s">
         <v>65</v>
       </c>
       <c r="C67">
@@ -7519,7 +7795,7 @@
       <c r="K67">
         <v>0</v>
       </c>
-      <c r="L67" s="7">
+      <c r="L67" s="5">
         <v>170471</v>
       </c>
       <c r="M67">
@@ -7567,27 +7843,27 @@
       <c r="AA67" t="s">
         <v>1</v>
       </c>
-      <c r="AB67" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC67" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD67" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE67" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF67" s="11" t="s">
+      <c r="AB67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE67" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF67" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="68" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A68">
-        <v>711</v>
-      </c>
-      <c r="B68" s="11" t="s">
+      <c r="A68" s="12" t="s">
+        <v>282</v>
+      </c>
+      <c r="B68" s="9" t="s">
         <v>66</v>
       </c>
       <c r="C68" t="s">
@@ -7665,27 +7941,27 @@
       <c r="AA68" t="s">
         <v>1</v>
       </c>
-      <c r="AB68" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC68" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD68" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE68" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF68" s="11" t="s">
+      <c r="AB68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE68" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF68" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="69" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>712</v>
-      </c>
-      <c r="B69" s="11" t="s">
+      <c r="A69" s="12" t="s">
+        <v>283</v>
+      </c>
+      <c r="B69" s="9" t="s">
         <v>67</v>
       </c>
       <c r="C69">
@@ -7763,27 +8039,27 @@
       <c r="AA69" t="s">
         <v>1</v>
       </c>
-      <c r="AB69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE69" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF69" s="11" t="s">
+      <c r="AB69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE69" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF69" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="70" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A70">
-        <v>713</v>
-      </c>
-      <c r="B70" s="11" t="s">
+      <c r="A70" s="12" t="s">
+        <v>284</v>
+      </c>
+      <c r="B70" s="9" t="s">
         <v>68</v>
       </c>
       <c r="C70">
@@ -7861,27 +8137,27 @@
       <c r="AA70" t="s">
         <v>1</v>
       </c>
-      <c r="AB70" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC70" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD70" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE70" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF70" s="11" t="s">
+      <c r="AB70" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC70" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD70" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE70" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF70" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="71" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A71" s="5">
-        <v>714</v>
-      </c>
-      <c r="B71" s="11" t="s">
+    <row r="71" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A71" s="14" t="s">
+        <v>285</v>
+      </c>
+      <c r="B71" s="9" t="s">
         <v>69</v>
       </c>
       <c r="C71">
@@ -7911,7 +8187,7 @@
       <c r="K71">
         <v>0</v>
       </c>
-      <c r="L71" s="7">
+      <c r="L71" s="5">
         <v>169985</v>
       </c>
       <c r="M71">
@@ -7959,27 +8235,27 @@
       <c r="AA71" t="s">
         <v>1</v>
       </c>
-      <c r="AB71" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC71" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD71" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE71" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF71" s="11" t="s">
+      <c r="AB71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE71" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF71" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="72" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A72">
-        <v>801</v>
-      </c>
-      <c r="B72" s="11" t="s">
+      <c r="A72" s="12" t="s">
+        <v>286</v>
+      </c>
+      <c r="B72" s="9" t="s">
         <v>70</v>
       </c>
       <c r="C72">
@@ -8057,27 +8333,27 @@
       <c r="AA72" t="s">
         <v>1</v>
       </c>
-      <c r="AB72" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC72" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD72" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE72" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF72" s="11" t="s">
+      <c r="AB72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE72" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF72" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="73" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A73">
-        <v>802</v>
-      </c>
-      <c r="B73" s="11" t="s">
+      <c r="A73" s="12" t="s">
+        <v>287</v>
+      </c>
+      <c r="B73" s="9" t="s">
         <v>71</v>
       </c>
       <c r="C73">
@@ -8107,7 +8383,7 @@
       <c r="K73">
         <v>0</v>
       </c>
-      <c r="L73" s="9">
+      <c r="L73" s="7">
         <v>170567</v>
       </c>
       <c r="M73">
@@ -8155,27 +8431,27 @@
       <c r="AA73" t="s">
         <v>1</v>
       </c>
-      <c r="AB73" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC73" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD73" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE73" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF73" s="11" t="s">
+      <c r="AB73" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC73" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD73" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE73" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF73" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="74" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A74">
-        <v>803</v>
-      </c>
-      <c r="B74" s="11" t="s">
+      <c r="A74" s="12" t="s">
+        <v>288</v>
+      </c>
+      <c r="B74" s="9" t="s">
         <v>72</v>
       </c>
       <c r="C74">
@@ -8253,27 +8529,27 @@
       <c r="AA74" t="s">
         <v>1</v>
       </c>
-      <c r="AB74" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC74" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD74" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE74" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF74" s="11" t="s">
+      <c r="AB74" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC74" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD74" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE74" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF74" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="75" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A75">
-        <v>804</v>
-      </c>
-      <c r="B75" s="11" t="s">
+      <c r="A75" s="12" t="s">
+        <v>289</v>
+      </c>
+      <c r="B75" s="9" t="s">
         <v>73</v>
       </c>
       <c r="C75">
@@ -8351,27 +8627,27 @@
       <c r="AA75" t="s">
         <v>1</v>
       </c>
-      <c r="AB75" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC75" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD75" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE75" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF75" s="11" t="s">
+      <c r="AB75" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC75" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD75" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE75" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF75" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="76" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A76">
-        <v>805</v>
-      </c>
-      <c r="B76" s="11" t="s">
+      <c r="A76" s="12" t="s">
+        <v>290</v>
+      </c>
+      <c r="B76" s="9" t="s">
         <v>74</v>
       </c>
       <c r="C76">
@@ -8449,27 +8725,27 @@
       <c r="AA76" t="s">
         <v>1</v>
       </c>
-      <c r="AB76" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC76" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD76" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE76" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF76" s="11" t="s">
+      <c r="AB76" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC76" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD76" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE76" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF76" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="77" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A77">
-        <v>806</v>
-      </c>
-      <c r="B77" s="11" t="s">
+      <c r="A77" s="12" t="s">
+        <v>291</v>
+      </c>
+      <c r="B77" s="9" t="s">
         <v>75</v>
       </c>
       <c r="C77">
@@ -8547,27 +8823,27 @@
       <c r="AA77" t="s">
         <v>1</v>
       </c>
-      <c r="AB77" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC77" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD77" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE77" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF77" s="11" t="s">
+      <c r="AB77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE77" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF77" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="78" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A78">
-        <v>807</v>
-      </c>
-      <c r="B78" s="11" t="s">
+      <c r="A78" s="12" t="s">
+        <v>292</v>
+      </c>
+      <c r="B78" s="9" t="s">
         <v>76</v>
       </c>
       <c r="C78">
@@ -8645,27 +8921,27 @@
       <c r="AA78" t="s">
         <v>1</v>
       </c>
-      <c r="AB78" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC78" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD78" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE78" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF78" s="11" t="s">
+      <c r="AB78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE78" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF78" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="79" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A79">
-        <v>808</v>
-      </c>
-      <c r="B79" s="11" t="s">
+      <c r="A79" s="12" t="s">
+        <v>293</v>
+      </c>
+      <c r="B79" s="9" t="s">
         <v>77</v>
       </c>
       <c r="C79">
@@ -8743,27 +9019,27 @@
       <c r="AA79" t="s">
         <v>1</v>
       </c>
-      <c r="AB79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE79" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF79" s="11" t="s">
+      <c r="AB79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE79" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF79" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="80" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A80">
-        <v>809</v>
-      </c>
-      <c r="B80" s="11" t="s">
+      <c r="A80" s="12" t="s">
+        <v>294</v>
+      </c>
+      <c r="B80" s="9" t="s">
         <v>78</v>
       </c>
       <c r="C80">
@@ -8841,27 +9117,27 @@
       <c r="AA80" t="s">
         <v>1</v>
       </c>
-      <c r="AB80" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC80" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD80" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE80" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF80" s="11" t="s">
+      <c r="AB80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE80" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF80" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="81" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A81">
-        <v>810</v>
-      </c>
-      <c r="B81" s="11" t="s">
+      <c r="A81" s="12" t="s">
+        <v>295</v>
+      </c>
+      <c r="B81" s="9" t="s">
         <v>79</v>
       </c>
       <c r="C81">
@@ -8939,27 +9215,27 @@
       <c r="AA81" t="s">
         <v>1</v>
       </c>
-      <c r="AB81" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC81" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD81" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE81" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF81" s="11" t="s">
+      <c r="AB81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE81" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF81" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="82" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A82">
-        <v>811</v>
-      </c>
-      <c r="B82" s="11" t="s">
+      <c r="A82" s="12" t="s">
+        <v>296</v>
+      </c>
+      <c r="B82" s="9" t="s">
         <v>80</v>
       </c>
       <c r="C82">
@@ -8989,7 +9265,7 @@
       <c r="K82">
         <v>0</v>
       </c>
-      <c r="L82" s="9">
+      <c r="L82" s="7">
         <v>168173</v>
       </c>
       <c r="M82">
@@ -9037,27 +9313,27 @@
       <c r="AA82" t="s">
         <v>1</v>
       </c>
-      <c r="AB82" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC82" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD82" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE82" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF82" s="11" t="s">
+      <c r="AB82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE82" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF82" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="83" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A83">
-        <v>812</v>
-      </c>
-      <c r="B83" s="11" t="s">
+      <c r="A83" s="12" t="s">
+        <v>297</v>
+      </c>
+      <c r="B83" s="9" t="s">
         <v>81</v>
       </c>
       <c r="C83" t="s">
@@ -9135,27 +9411,27 @@
       <c r="AA83" t="s">
         <v>1</v>
       </c>
-      <c r="AB83" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC83" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD83" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE83" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF83" s="11" t="s">
+      <c r="AB83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE83" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF83" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="84" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A84">
-        <v>813</v>
-      </c>
-      <c r="B84" s="11" t="s">
+      <c r="A84" s="12" t="s">
+        <v>298</v>
+      </c>
+      <c r="B84" s="9" t="s">
         <v>82</v>
       </c>
       <c r="C84">
@@ -9233,27 +9509,27 @@
       <c r="AA84" t="s">
         <v>1</v>
       </c>
-      <c r="AB84" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC84" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD84" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE84" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF84" s="11" t="s">
+      <c r="AB84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE84" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF84" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="85" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A85">
-        <v>814</v>
-      </c>
-      <c r="B85" s="11" t="s">
+      <c r="A85" s="12" t="s">
+        <v>299</v>
+      </c>
+      <c r="B85" s="9" t="s">
         <v>83</v>
       </c>
       <c r="C85" t="s">
@@ -9331,27 +9607,27 @@
       <c r="AA85" t="s">
         <v>1</v>
       </c>
-      <c r="AB85" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC85" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD85" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE85" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF85" s="11" t="s">
+      <c r="AB85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE85" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF85" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="86" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A86">
-        <v>901</v>
-      </c>
-      <c r="B86" s="11" t="s">
+      <c r="A86" s="12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B86" s="9" t="s">
         <v>84</v>
       </c>
       <c r="C86">
@@ -9429,27 +9705,27 @@
       <c r="AA86" t="s">
         <v>1</v>
       </c>
-      <c r="AB86" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC86" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD86" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE86" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF86" s="11" t="s">
+      <c r="AB86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE86" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF86" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="87" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A87">
-        <v>902</v>
-      </c>
-      <c r="B87" s="11" t="s">
+    <row r="87" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A87" s="12" t="s">
+        <v>301</v>
+      </c>
+      <c r="B87" s="9" t="s">
         <v>85</v>
       </c>
       <c r="C87">
@@ -9479,7 +9755,7 @@
       <c r="K87">
         <v>1</v>
       </c>
-      <c r="L87" s="7">
+      <c r="L87" s="5">
         <v>171917</v>
       </c>
       <c r="M87">
@@ -9527,27 +9803,27 @@
       <c r="AA87" t="s">
         <v>1</v>
       </c>
-      <c r="AB87" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC87" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD87" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE87" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF87" s="11" t="s">
+      <c r="AB87" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC87" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD87" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE87" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF87" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="88" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A88">
-        <v>903</v>
-      </c>
-      <c r="B88" s="11" t="s">
+    <row r="88" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A88" s="12" t="s">
+        <v>302</v>
+      </c>
+      <c r="B88" s="9" t="s">
         <v>86</v>
       </c>
       <c r="C88">
@@ -9577,7 +9853,7 @@
       <c r="K88">
         <v>1</v>
       </c>
-      <c r="L88" s="7">
+      <c r="L88" s="5">
         <v>2346072</v>
       </c>
       <c r="M88">
@@ -9625,27 +9901,27 @@
       <c r="AA88" t="s">
         <v>1</v>
       </c>
-      <c r="AB88" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC88" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD88" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE88" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF88" s="11" t="s">
+      <c r="AB88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE88" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF88" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="89" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A89">
-        <v>904</v>
-      </c>
-      <c r="B89" s="11" t="s">
+    <row r="89" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A89" s="12" t="s">
+        <v>303</v>
+      </c>
+      <c r="B89" s="9" t="s">
         <v>87</v>
       </c>
       <c r="C89">
@@ -9675,7 +9951,7 @@
       <c r="K89">
         <v>1</v>
       </c>
-      <c r="L89" s="7">
+      <c r="L89" s="5">
         <v>170931</v>
       </c>
       <c r="M89">
@@ -9723,27 +9999,27 @@
       <c r="AA89" t="s">
         <v>1</v>
       </c>
-      <c r="AB89" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC89" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD89" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE89" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF89" s="11" t="s">
+      <c r="AB89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE89" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF89" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="90" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A90">
-        <v>905</v>
-      </c>
-      <c r="B90" s="11" t="s">
+    <row r="90" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A90" s="12" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90" s="9" t="s">
         <v>88</v>
       </c>
       <c r="C90">
@@ -9773,7 +10049,7 @@
       <c r="K90">
         <v>1</v>
       </c>
-      <c r="L90" s="7">
+      <c r="L90" s="5">
         <v>173471</v>
       </c>
       <c r="M90">
@@ -9821,27 +10097,27 @@
       <c r="AA90" t="s">
         <v>1</v>
       </c>
-      <c r="AB90" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC90" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD90" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE90" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF90" s="11" t="s">
+      <c r="AB90" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC90" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD90" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE90" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF90" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="91" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A91">
-        <v>906</v>
-      </c>
-      <c r="B91" s="11" t="s">
+    <row r="91" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A91" s="12" t="s">
+        <v>305</v>
+      </c>
+      <c r="B91" s="9" t="s">
         <v>209</v>
       </c>
       <c r="C91">
@@ -9871,7 +10147,7 @@
       <c r="K91">
         <v>1</v>
       </c>
-      <c r="L91" s="7">
+      <c r="L91" s="5">
         <v>171320</v>
       </c>
       <c r="M91">
@@ -9919,27 +10195,27 @@
       <c r="AA91" t="s">
         <v>1</v>
       </c>
-      <c r="AB91" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC91" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD91" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE91" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF91" s="11" t="s">
+      <c r="AB91" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC91" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD91" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE91" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF91" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="92" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A92">
-        <v>907</v>
-      </c>
-      <c r="B92" s="11" t="s">
+    <row r="92" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A92" s="12" t="s">
+        <v>306</v>
+      </c>
+      <c r="B92" s="9" t="s">
         <v>89</v>
       </c>
       <c r="C92">
@@ -9969,7 +10245,7 @@
       <c r="K92">
         <v>1</v>
       </c>
-      <c r="L92" s="7">
+      <c r="L92" s="5">
         <v>171321</v>
       </c>
       <c r="M92">
@@ -10017,27 +10293,27 @@
       <c r="AA92" t="s">
         <v>1</v>
       </c>
-      <c r="AB92" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC92" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD92" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE92" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF92" s="11" t="s">
+      <c r="AB92" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC92" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD92" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE92" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF92" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="93" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A93" s="5">
-        <v>908</v>
-      </c>
-      <c r="B93" s="11" t="s">
+    <row r="93" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A93" s="14" t="s">
+        <v>307</v>
+      </c>
+      <c r="B93" s="9" t="s">
         <v>90</v>
       </c>
       <c r="C93">
@@ -10067,7 +10343,7 @@
       <c r="K93">
         <v>1</v>
       </c>
-      <c r="L93" s="7">
+      <c r="L93" s="5">
         <v>171326</v>
       </c>
       <c r="M93">
@@ -10115,27 +10391,27 @@
       <c r="AA93" t="s">
         <v>1</v>
       </c>
-      <c r="AB93" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC93" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD93" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE93" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF93" s="11" t="s">
+      <c r="AB93" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC93" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD93" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE93" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF93" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="94" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A94" s="5">
-        <v>909</v>
-      </c>
-      <c r="B94" s="11" t="s">
+    <row r="94" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A94" s="14" t="s">
+        <v>308</v>
+      </c>
+      <c r="B94" s="9" t="s">
         <v>91</v>
       </c>
       <c r="C94">
@@ -10165,7 +10441,7 @@
       <c r="K94">
         <v>1</v>
       </c>
-      <c r="L94" s="7">
+      <c r="L94" s="5">
         <v>171316</v>
       </c>
       <c r="M94">
@@ -10213,27 +10489,27 @@
       <c r="AA94" t="s">
         <v>1</v>
       </c>
-      <c r="AB94" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC94" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD94" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE94" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF94" s="11" t="s">
+      <c r="AB94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE94" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF94" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A95" s="5">
-        <v>910</v>
-      </c>
-      <c r="B95" s="11" t="s">
+    <row r="95" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A95" s="14" t="s">
+        <v>309</v>
+      </c>
+      <c r="B95" s="9" t="s">
         <v>92</v>
       </c>
       <c r="C95">
@@ -10263,7 +10539,7 @@
       <c r="K95">
         <v>1</v>
       </c>
-      <c r="L95" s="7">
+      <c r="L95" s="5">
         <v>170926</v>
       </c>
       <c r="M95">
@@ -10311,27 +10587,27 @@
       <c r="AA95" t="s">
         <v>1</v>
       </c>
-      <c r="AB95" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC95" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD95" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE95" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF95" s="11" t="s">
+      <c r="AB95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE95" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF95" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A96">
+    <row r="96" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A96" s="12">
         <v>1001</v>
       </c>
-      <c r="B96" s="11" t="s">
+      <c r="B96" s="9" t="s">
         <v>93</v>
       </c>
       <c r="C96">
@@ -10361,7 +10637,7 @@
       <c r="K96">
         <v>0</v>
       </c>
-      <c r="L96" s="8">
+      <c r="L96" s="6">
         <v>169719</v>
       </c>
       <c r="M96">
@@ -10409,27 +10685,27 @@
       <c r="AA96" t="s">
         <v>1</v>
       </c>
-      <c r="AB96" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC96" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD96" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE96" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF96" s="11" t="s">
+      <c r="AB96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE96" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF96" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="97" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A97">
+      <c r="A97" s="12">
         <v>1002</v>
       </c>
-      <c r="B97" s="11" t="s">
+      <c r="B97" s="9" t="s">
         <v>94</v>
       </c>
       <c r="C97">
@@ -10507,27 +10783,27 @@
       <c r="AA97" t="s">
         <v>1</v>
       </c>
-      <c r="AB97" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC97" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD97" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE97" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF97" s="11" t="s">
+      <c r="AB97" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC97" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD97" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE97" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF97" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="98" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A98">
+      <c r="A98" s="12">
         <v>1003</v>
       </c>
-      <c r="B98" s="11" t="s">
+      <c r="B98" s="9" t="s">
         <v>95</v>
       </c>
       <c r="C98">
@@ -10605,27 +10881,27 @@
       <c r="AA98" t="s">
         <v>1</v>
       </c>
-      <c r="AB98" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC98" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD98" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE98" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF98" s="11" t="s">
+      <c r="AB98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE98" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF98" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="99" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A99">
+      <c r="A99" s="12">
         <v>1004</v>
       </c>
-      <c r="B99" s="11" t="s">
+      <c r="B99" s="9" t="s">
         <v>96</v>
       </c>
       <c r="C99">
@@ -10703,27 +10979,27 @@
       <c r="AA99" t="s">
         <v>1</v>
       </c>
-      <c r="AB99" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC99" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD99" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE99" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF99" s="11" t="s">
+      <c r="AB99" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC99" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD99" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE99" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF99" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="100" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A100">
+      <c r="A100" s="12">
         <v>1005</v>
       </c>
-      <c r="B100" s="11" t="s">
+      <c r="B100" s="9" t="s">
         <v>97</v>
       </c>
       <c r="C100">
@@ -10801,27 +11077,27 @@
       <c r="AA100" t="s">
         <v>1</v>
       </c>
-      <c r="AB100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE100" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF100" s="11" t="s">
+      <c r="AB100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE100" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF100" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="101" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A101">
+      <c r="A101" s="12">
         <v>1006</v>
       </c>
-      <c r="B101" s="11" t="s">
+      <c r="B101" s="9" t="s">
         <v>98</v>
       </c>
       <c r="C101">
@@ -10851,46 +11127,46 @@
       <c r="K101">
         <v>0</v>
       </c>
-      <c r="L101" s="4">
+      <c r="L101" s="3">
         <v>168879</v>
       </c>
-      <c r="M101" s="4">
+      <c r="M101" s="3">
         <v>360</v>
       </c>
-      <c r="N101" s="4">
+      <c r="N101" s="3">
         <v>0.6</v>
       </c>
-      <c r="O101" s="4">
+      <c r="O101" s="3">
         <v>6.6</v>
       </c>
-      <c r="P101" s="4">
-        <v>0</v>
-      </c>
-      <c r="Q101" s="4">
-        <v>0</v>
-      </c>
-      <c r="R101" s="4">
-        <v>1</v>
-      </c>
-      <c r="S101" s="4">
+      <c r="P101" s="3">
+        <v>0</v>
+      </c>
+      <c r="Q101" s="3">
+        <v>0</v>
+      </c>
+      <c r="R101" s="3">
+        <v>1</v>
+      </c>
+      <c r="S101" s="3">
         <v>79.3</v>
       </c>
-      <c r="T101" s="4">
+      <c r="T101" s="3">
         <v>1.4</v>
       </c>
-      <c r="U101" s="4">
-        <v>0</v>
-      </c>
-      <c r="V101" s="4">
-        <v>0</v>
-      </c>
-      <c r="W101" s="4">
+      <c r="U101" s="3">
+        <v>0</v>
+      </c>
+      <c r="V101" s="3">
+        <v>0</v>
+      </c>
+      <c r="W101" s="3">
         <v>9</v>
       </c>
-      <c r="X101" s="4">
+      <c r="X101" s="3">
         <v>86</v>
       </c>
-      <c r="Y101" s="4">
+      <c r="Y101" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="Z101" t="s">
@@ -10899,27 +11175,27 @@
       <c r="AA101" t="s">
         <v>1</v>
       </c>
-      <c r="AB101" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC101" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD101" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE101" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF101" s="11" t="s">
+      <c r="AB101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE101" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF101" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="102" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A102">
+      <c r="A102" s="12">
         <v>1007</v>
       </c>
-      <c r="B102" s="11" t="s">
+      <c r="B102" s="9" t="s">
         <v>99</v>
       </c>
       <c r="C102">
@@ -10997,27 +11273,27 @@
       <c r="AA102" t="s">
         <v>1</v>
       </c>
-      <c r="AB102" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC102" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD102" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE102" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF102" s="11" t="s">
+      <c r="AB102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE102" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF102" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="103" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A103">
+      <c r="A103" s="12">
         <v>1008</v>
       </c>
-      <c r="B103" s="11" t="s">
+      <c r="B103" s="9" t="s">
         <v>100</v>
       </c>
       <c r="C103">
@@ -11095,27 +11371,27 @@
       <c r="AA103" t="s">
         <v>1</v>
       </c>
-      <c r="AB103" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC103" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD103" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE103" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF103" s="11" t="s">
+      <c r="AB103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE103" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF103" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="104" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A104" s="5">
+      <c r="A104" s="13">
         <v>1101</v>
       </c>
-      <c r="B104" s="11" t="s">
+      <c r="B104" s="9" t="s">
         <v>101</v>
       </c>
       <c r="C104">
@@ -11145,46 +11421,46 @@
       <c r="K104">
         <v>0</v>
       </c>
-      <c r="L104" s="4">
+      <c r="L104" s="3">
         <v>168896</v>
       </c>
-      <c r="M104" s="4">
+      <c r="M104" s="3">
         <v>361</v>
       </c>
-      <c r="N104" s="4">
+      <c r="N104" s="3">
         <v>1.7</v>
       </c>
-      <c r="O104" s="4">
+      <c r="O104" s="3">
         <v>12</v>
       </c>
-      <c r="P104" s="4">
+      <c r="P104" s="3">
         <v>0.2</v>
       </c>
-      <c r="Q104" s="4">
-        <v>0</v>
-      </c>
-      <c r="R104" s="4">
+      <c r="Q104" s="3">
+        <v>0</v>
+      </c>
+      <c r="R104" s="3">
         <v>2</v>
       </c>
-      <c r="S104" s="4">
+      <c r="S104" s="3">
         <v>72.5</v>
       </c>
-      <c r="T104" s="4">
+      <c r="T104" s="3">
         <v>2.4</v>
       </c>
-      <c r="U104" s="4">
+      <c r="U104" s="3">
         <v>0.3</v>
       </c>
-      <c r="V104" s="4">
-        <v>0</v>
-      </c>
-      <c r="W104" s="4">
+      <c r="V104" s="3">
+        <v>0</v>
+      </c>
+      <c r="W104" s="3">
         <v>15</v>
       </c>
-      <c r="X104" s="4">
+      <c r="X104" s="3">
         <v>100</v>
       </c>
-      <c r="Y104" s="4">
+      <c r="Y104" s="3">
         <v>4.4000000000000004</v>
       </c>
       <c r="Z104" t="s">
@@ -11193,27 +11469,27 @@
       <c r="AA104" t="s">
         <v>1</v>
       </c>
-      <c r="AB104" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC104" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD104" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE104" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF104" s="11" t="s">
+      <c r="AB104" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC104" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD104" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE104" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF104" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="105" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A105">
+      <c r="A105" s="12">
         <v>1102</v>
       </c>
-      <c r="B105" s="11" t="s">
+      <c r="B105" s="9" t="s">
         <v>102</v>
       </c>
       <c r="C105">
@@ -11291,27 +11567,27 @@
       <c r="AA105" t="s">
         <v>1</v>
       </c>
-      <c r="AB105" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC105" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD105" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE105" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF105" s="11" t="s">
+      <c r="AB105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE105" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF105" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="106" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A106">
+      <c r="A106" s="12">
         <v>1103</v>
       </c>
-      <c r="B106" s="11" t="s">
+      <c r="B106" s="9" t="s">
         <v>103</v>
       </c>
       <c r="C106">
@@ -11389,27 +11665,27 @@
       <c r="AA106" t="s">
         <v>1</v>
       </c>
-      <c r="AB106" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC106" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD106" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE106" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF106" s="11" t="s">
+      <c r="AB106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE106" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF106" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="107" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A107">
+      <c r="A107" s="12">
         <v>1104</v>
       </c>
-      <c r="B107" s="11" t="s">
+      <c r="B107" s="9" t="s">
         <v>104</v>
       </c>
       <c r="C107">
@@ -11487,27 +11763,27 @@
       <c r="AA107" t="s">
         <v>1</v>
       </c>
-      <c r="AB107" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC107" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD107" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE107" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF107" s="11" t="s">
+      <c r="AB107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE107" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF107" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="108" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A108">
+      <c r="A108" s="12">
         <v>1105</v>
       </c>
-      <c r="B108" s="11" t="s">
+      <c r="B108" s="9" t="s">
         <v>105</v>
       </c>
       <c r="C108">
@@ -11585,27 +11861,27 @@
       <c r="AA108" t="s">
         <v>1</v>
       </c>
-      <c r="AB108" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC108" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD108" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE108" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF108" s="11" t="s">
+      <c r="AB108" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC108" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD108" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE108" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF108" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="109" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A109">
+      <c r="A109" s="12">
         <v>1106</v>
       </c>
-      <c r="B109" s="11" t="s">
+      <c r="B109" s="9" t="s">
         <v>106</v>
       </c>
       <c r="C109" t="s">
@@ -11683,27 +11959,27 @@
       <c r="AA109" t="s">
         <v>1</v>
       </c>
-      <c r="AB109" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC109" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD109" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE109" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF109" s="11" t="s">
+      <c r="AB109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE109" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF109" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="110" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A110">
+      <c r="A110" s="12">
         <v>1107</v>
       </c>
-      <c r="B110" s="11" t="s">
+      <c r="B110" s="9" t="s">
         <v>107</v>
       </c>
       <c r="C110">
@@ -11733,46 +12009,46 @@
       <c r="K110">
         <v>0</v>
       </c>
-      <c r="L110" s="4">
+      <c r="L110" s="3">
         <v>169740</v>
       </c>
-      <c r="M110" s="4">
+      <c r="M110" s="3">
         <v>361</v>
       </c>
-      <c r="N110" s="4">
+      <c r="N110" s="3">
         <v>1.8</v>
       </c>
-      <c r="O110" s="4">
+      <c r="O110" s="3">
         <v>10.3</v>
       </c>
-      <c r="P110" s="4">
+      <c r="P110" s="3">
         <v>0.4</v>
       </c>
-      <c r="Q110" s="4">
-        <v>0</v>
-      </c>
-      <c r="R110" s="4">
+      <c r="Q110" s="3">
+        <v>0</v>
+      </c>
+      <c r="R110" s="3">
         <v>11</v>
       </c>
-      <c r="S110" s="4">
+      <c r="S110" s="3">
         <v>78.3</v>
       </c>
-      <c r="T110" s="4">
+      <c r="T110" s="3">
         <v>7.1</v>
       </c>
-      <c r="U110" s="4">
+      <c r="U110" s="3">
         <v>0.8</v>
       </c>
-      <c r="V110" s="4">
-        <v>0</v>
-      </c>
-      <c r="W110" s="4">
+      <c r="V110" s="3">
+        <v>0</v>
+      </c>
+      <c r="W110" s="3">
         <v>37</v>
       </c>
-      <c r="X110" s="4">
+      <c r="X110" s="3">
         <v>224</v>
       </c>
-      <c r="Y110" s="4">
+      <c r="Y110" s="3">
         <v>4.7</v>
       </c>
       <c r="Z110" t="s">
@@ -11781,27 +12057,27 @@
       <c r="AA110" t="s">
         <v>1</v>
       </c>
-      <c r="AB110" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC110" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD110" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE110" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF110" s="11" t="s">
+      <c r="AB110" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC110" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD110" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE110" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF110" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="111" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A111">
+      <c r="A111" s="12">
         <v>1108</v>
       </c>
-      <c r="B111" s="11" t="s">
+      <c r="B111" s="9" t="s">
         <v>108</v>
       </c>
       <c r="C111" t="s">
@@ -11879,27 +12155,27 @@
       <c r="AA111" t="s">
         <v>1</v>
       </c>
-      <c r="AB111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE111" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF111" s="11" t="s">
+      <c r="AB111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE111" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF111" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="112" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A112">
+      <c r="A112" s="12">
         <v>1109</v>
       </c>
-      <c r="B112" s="11" t="s">
+      <c r="B112" s="9" t="s">
         <v>109</v>
       </c>
       <c r="C112">
@@ -11977,27 +12253,27 @@
       <c r="AA112" t="s">
         <v>1</v>
       </c>
-      <c r="AB112" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC112" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD112" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE112" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF112" s="11" t="s">
+      <c r="AB112" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC112" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD112" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE112" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF112" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="113" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A113">
+      <c r="A113" s="12">
         <v>1201</v>
       </c>
-      <c r="B113" s="11" t="s">
+      <c r="B113" s="9" t="s">
         <v>110</v>
       </c>
       <c r="C113">
@@ -12075,27 +12351,27 @@
       <c r="AA113" t="s">
         <v>1</v>
       </c>
-      <c r="AB113" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC113" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD113" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE113" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF113" s="11" t="s">
+      <c r="AB113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE113" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF113" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="114" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A114">
+      <c r="A114" s="12">
         <v>1202</v>
       </c>
-      <c r="B114" s="11" t="s">
+      <c r="B114" s="9" t="s">
         <v>210</v>
       </c>
       <c r="C114">
@@ -12173,27 +12449,27 @@
       <c r="AA114" t="s">
         <v>1</v>
       </c>
-      <c r="AB114" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC114" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD114" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE114" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF114" s="11" t="s">
+      <c r="AB114" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC114" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD114" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE114" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF114" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="115" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A115">
+      <c r="A115" s="12">
         <v>1203</v>
       </c>
-      <c r="B115" s="11" t="s">
+      <c r="B115" s="9" t="s">
         <v>111</v>
       </c>
       <c r="C115">
@@ -12271,27 +12547,27 @@
       <c r="AA115" t="s">
         <v>1</v>
       </c>
-      <c r="AB115" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC115" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD115" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE115" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF115" s="11" t="s">
+      <c r="AB115" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC115" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD115" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE115" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF115" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="116" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A116">
+      <c r="A116" s="12">
         <v>1204</v>
       </c>
-      <c r="B116" s="11" t="s">
+      <c r="B116" s="9" t="s">
         <v>112</v>
       </c>
       <c r="C116">
@@ -12369,27 +12645,27 @@
       <c r="AA116" t="s">
         <v>1</v>
       </c>
-      <c r="AB116" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC116" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD116" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE116" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF116" s="11" t="s">
+      <c r="AB116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE116" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF116" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="117" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A117">
+      <c r="A117" s="12">
         <v>1205</v>
       </c>
-      <c r="B117" s="11" t="s">
+      <c r="B117" s="9" t="s">
         <v>113</v>
       </c>
       <c r="C117">
@@ -12467,27 +12743,27 @@
       <c r="AA117" t="s">
         <v>1</v>
       </c>
-      <c r="AB117" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC117" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD117" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE117" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF117" s="11" t="s">
+      <c r="AB117" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC117" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD117" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE117" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF117" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="118" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A118">
+      <c r="A118" s="12">
         <v>1206</v>
       </c>
-      <c r="B118" s="11" t="s">
+      <c r="B118" s="9" t="s">
         <v>114</v>
       </c>
       <c r="C118">
@@ -12565,27 +12841,27 @@
       <c r="AA118" t="s">
         <v>1</v>
       </c>
-      <c r="AB118" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC118" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD118" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE118" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF118" s="11" t="s">
+      <c r="AB118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE118" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF118" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="119" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A119">
+      <c r="A119" s="12">
         <v>1207</v>
       </c>
-      <c r="B119" s="11" t="s">
+      <c r="B119" s="9" t="s">
         <v>115</v>
       </c>
       <c r="C119">
@@ -12663,27 +12939,27 @@
       <c r="AA119" t="s">
         <v>1</v>
       </c>
-      <c r="AB119" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC119" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD119" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE119" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF119" s="11" t="s">
+      <c r="AB119" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC119" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD119" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE119" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF119" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="120" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A120">
+      <c r="A120" s="12">
         <v>1208</v>
       </c>
-      <c r="B120" s="11" t="s">
+      <c r="B120" s="9" t="s">
         <v>116</v>
       </c>
       <c r="C120">
@@ -12761,27 +13037,27 @@
       <c r="AA120" t="s">
         <v>1</v>
       </c>
-      <c r="AB120" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC120" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD120" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE120" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF120" s="11" t="s">
+      <c r="AB120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE120" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF120" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="121" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A121">
+      <c r="A121" s="12">
         <v>1209</v>
       </c>
-      <c r="B121" s="11" t="s">
+      <c r="B121" s="9" t="s">
         <v>117</v>
       </c>
       <c r="C121" t="s">
@@ -12859,27 +13135,27 @@
       <c r="AA121" t="s">
         <v>1</v>
       </c>
-      <c r="AB121" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC121" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD121" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE121" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF121" s="11" t="s">
+      <c r="AB121" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC121" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD121" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE121" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF121" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="122" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A122">
+      <c r="A122" s="12">
         <v>1210</v>
       </c>
-      <c r="B122" s="11" t="s">
+      <c r="B122" s="9" t="s">
         <v>118</v>
       </c>
       <c r="C122" t="s">
@@ -12957,27 +13233,27 @@
       <c r="AA122" t="s">
         <v>1</v>
       </c>
-      <c r="AB122" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC122" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD122" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE122" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF122" s="11" t="s">
+      <c r="AB122" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC122" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD122" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE122" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF122" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="123" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A123">
+      <c r="A123" s="12">
         <v>1211</v>
       </c>
-      <c r="B123" s="11" t="s">
+      <c r="B123" s="9" t="s">
         <v>119</v>
       </c>
       <c r="C123" t="s">
@@ -13055,27 +13331,27 @@
       <c r="AA123" t="s">
         <v>1</v>
       </c>
-      <c r="AB123" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC123" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD123" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE123" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF123" s="11" t="s">
+      <c r="AB123" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC123" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD123" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE123" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF123" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="124" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A124">
+      <c r="A124" s="12">
         <v>1212</v>
       </c>
-      <c r="B124" s="11" t="s">
+      <c r="B124" s="9" t="s">
         <v>120</v>
       </c>
       <c r="C124">
@@ -13153,27 +13429,27 @@
       <c r="AA124" t="s">
         <v>1</v>
       </c>
-      <c r="AB124" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC124" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD124" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE124" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF124" s="11" t="s">
+      <c r="AB124" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC124" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD124" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE124" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF124" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="125" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A125">
+      <c r="A125" s="12">
         <v>1213</v>
       </c>
-      <c r="B125" s="11" t="s">
+      <c r="B125" s="9" t="s">
         <v>121</v>
       </c>
       <c r="C125" t="s">
@@ -13251,27 +13527,27 @@
       <c r="AA125" t="s">
         <v>1</v>
       </c>
-      <c r="AB125" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC125" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD125" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE125" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF125" s="11" t="s">
+      <c r="AB125" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC125" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD125" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE125" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF125" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="126" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A126">
+      <c r="A126" s="12">
         <v>1214</v>
       </c>
-      <c r="B126" s="11" t="s">
+      <c r="B126" s="9" t="s">
         <v>122</v>
       </c>
       <c r="C126">
@@ -13349,27 +13625,27 @@
       <c r="AA126" t="s">
         <v>1</v>
       </c>
-      <c r="AB126" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC126" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD126" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE126" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF126" s="11" t="s">
+      <c r="AB126" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC126" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD126" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE126" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF126" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="127" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A127">
+      <c r="A127" s="12">
         <v>1301</v>
       </c>
-      <c r="B127" s="11" t="s">
+      <c r="B127" s="9" t="s">
         <v>211</v>
       </c>
       <c r="C127">
@@ -13447,27 +13723,27 @@
       <c r="AA127" t="s">
         <v>1</v>
       </c>
-      <c r="AB127" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC127" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD127" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE127" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF127" s="11" t="s">
+      <c r="AB127" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC127" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD127" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE127" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF127" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="128" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A128">
+      <c r="A128" s="12">
         <v>1302</v>
       </c>
-      <c r="B128" s="11" t="s">
+      <c r="B128" s="9" t="s">
         <v>212</v>
       </c>
       <c r="C128">
@@ -13545,27 +13821,27 @@
       <c r="AA128" t="s">
         <v>1</v>
       </c>
-      <c r="AB128" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC128" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD128" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE128" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF128" s="11" t="s">
+      <c r="AB128" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC128" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD128" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE128" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF128" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="129" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A129">
+      <c r="A129" s="12">
         <v>1401</v>
       </c>
-      <c r="B129" s="11" t="s">
+      <c r="B129" s="9" t="s">
         <v>123</v>
       </c>
       <c r="C129" t="s">
@@ -13643,27 +13919,27 @@
       <c r="AA129" t="s">
         <v>1</v>
       </c>
-      <c r="AB129" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC129" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD129" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE129" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF129" s="11" t="s">
+      <c r="AB129" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC129" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD129" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE129" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF129" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="130" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A130">
+      <c r="A130" s="12">
         <v>1402</v>
       </c>
-      <c r="B130" s="11" t="s">
+      <c r="B130" s="9" t="s">
         <v>213</v>
       </c>
       <c r="C130" t="s">
@@ -13741,27 +14017,27 @@
       <c r="AA130" t="s">
         <v>1</v>
       </c>
-      <c r="AB130" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC130" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD130" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE130" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF130" s="11" t="s">
+      <c r="AB130" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC130" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD130" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE130" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF130" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="131" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A131">
+      <c r="A131" s="12">
         <v>1403</v>
       </c>
-      <c r="B131" s="11" t="s">
+      <c r="B131" s="9" t="s">
         <v>124</v>
       </c>
       <c r="C131" t="s">
@@ -13839,27 +14115,27 @@
       <c r="AA131" t="s">
         <v>1</v>
       </c>
-      <c r="AB131" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC131" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD131" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE131" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF131" s="11" t="s">
+      <c r="AB131" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC131" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD131" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE131" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF131" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="132" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A132">
+      <c r="A132" s="12">
         <v>1404</v>
       </c>
-      <c r="B132" s="11" t="s">
+      <c r="B132" s="9" t="s">
         <v>125</v>
       </c>
       <c r="C132" t="s">
@@ -13937,27 +14213,27 @@
       <c r="AA132" t="s">
         <v>1</v>
       </c>
-      <c r="AB132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE132" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF132" s="11" t="s">
+      <c r="AB132" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC132" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD132" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE132" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF132" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="133" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A133">
+    <row r="133" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A133" s="12">
         <v>1501</v>
       </c>
-      <c r="B133" s="11" t="s">
+      <c r="B133" s="9" t="s">
         <v>126</v>
       </c>
       <c r="C133">
@@ -13987,7 +14263,7 @@
       <c r="K133">
         <v>0</v>
       </c>
-      <c r="L133" s="7">
+      <c r="L133" s="5">
         <v>171401</v>
       </c>
       <c r="M133">
@@ -14035,27 +14311,27 @@
       <c r="AA133" t="s">
         <v>1</v>
       </c>
-      <c r="AB133" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC133" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD133" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE133" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF133" s="11" t="s">
+      <c r="AB133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE133" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF133" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="134" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A134">
+      <c r="A134" s="12">
         <v>1502</v>
       </c>
-      <c r="B134" s="11" t="s">
+      <c r="B134" s="9" t="s">
         <v>127</v>
       </c>
       <c r="C134">
@@ -14133,27 +14409,27 @@
       <c r="AA134" t="s">
         <v>1</v>
       </c>
-      <c r="AB134" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC134" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD134" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE134" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF134" s="11" t="s">
+      <c r="AB134" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC134" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD134" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE134" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF134" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="135" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A135">
+      <c r="A135" s="12">
         <v>1503</v>
       </c>
-      <c r="B135" s="11" t="s">
+      <c r="B135" s="9" t="s">
         <v>214</v>
       </c>
       <c r="C135">
@@ -14231,27 +14507,27 @@
       <c r="AA135" t="s">
         <v>1</v>
       </c>
-      <c r="AB135" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC135" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD135" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE135" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF135" s="11" t="s">
+      <c r="AB135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE135" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF135" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="136" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A136">
+      <c r="A136" s="12">
         <v>1504</v>
       </c>
-      <c r="B136" s="11" t="s">
+      <c r="B136" s="9" t="s">
         <v>128</v>
       </c>
       <c r="C136">
@@ -14329,27 +14605,27 @@
       <c r="AA136" t="s">
         <v>1</v>
       </c>
-      <c r="AB136" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC136" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD136" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE136" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF136" s="11" t="s">
+      <c r="AB136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE136" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF136" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="137" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A137">
+      <c r="A137" s="12">
         <v>1505</v>
       </c>
-      <c r="B137" s="11" t="s">
+      <c r="B137" s="9" t="s">
         <v>129</v>
       </c>
       <c r="C137" t="s">
@@ -14427,27 +14703,27 @@
       <c r="AA137" t="s">
         <v>1</v>
       </c>
-      <c r="AB137" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC137" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD137" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE137" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF137" s="11" t="s">
+      <c r="AB137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE137" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF137" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="138" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A138">
+      <c r="A138" s="12">
         <v>1506</v>
       </c>
-      <c r="B138" s="11" t="s">
+      <c r="B138" s="9" t="s">
         <v>130</v>
       </c>
       <c r="C138">
@@ -14525,27 +14801,27 @@
       <c r="AA138" t="s">
         <v>1</v>
       </c>
-      <c r="AB138" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC138" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD138" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE138" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF138" s="11" t="s">
+      <c r="AB138" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC138" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD138" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE138" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF138" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="139" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A139">
+    <row r="139" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A139" s="12">
         <v>1507</v>
       </c>
-      <c r="B139" s="11" t="s">
+      <c r="B139" s="9" t="s">
         <v>131</v>
       </c>
       <c r="C139">
@@ -14575,7 +14851,7 @@
       <c r="K139">
         <v>0</v>
       </c>
-      <c r="L139" s="7">
+      <c r="L139" s="5">
         <v>171411</v>
       </c>
       <c r="M139">
@@ -14623,27 +14899,27 @@
       <c r="AA139" t="s">
         <v>1</v>
       </c>
-      <c r="AB139" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC139" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD139" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE139" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF139" s="11" t="s">
+      <c r="AB139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE139" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF139" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="140" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A140">
+    <row r="140" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A140" s="12">
         <v>1508</v>
       </c>
-      <c r="B140" s="11" t="s">
+      <c r="B140" s="9" t="s">
         <v>215</v>
       </c>
       <c r="C140">
@@ -14673,7 +14949,7 @@
       <c r="K140">
         <v>0</v>
       </c>
-      <c r="L140" s="7">
+      <c r="L140" s="5">
         <v>171410</v>
       </c>
       <c r="M140">
@@ -14721,27 +14997,27 @@
       <c r="AA140" t="s">
         <v>1</v>
       </c>
-      <c r="AB140" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC140" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD140" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE140" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF140" s="11" t="s">
+      <c r="AB140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE140" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF140" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="141" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A141">
+      <c r="A141" s="12">
         <v>1509</v>
       </c>
-      <c r="B141" s="11" t="s">
+      <c r="B141" s="9" t="s">
         <v>132</v>
       </c>
       <c r="C141">
@@ -14819,27 +15095,27 @@
       <c r="AA141" t="s">
         <v>1</v>
       </c>
-      <c r="AB141" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC141" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD141" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE141" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF141" s="11" t="s">
+      <c r="AB141" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC141" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD141" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE141" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF141" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="142" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A142">
+      <c r="A142" s="12">
         <v>1510</v>
       </c>
-      <c r="B142" s="11" t="s">
+      <c r="B142" s="9" t="s">
         <v>216</v>
       </c>
       <c r="C142">
@@ -14917,27 +15193,27 @@
       <c r="AA142" t="s">
         <v>1</v>
       </c>
-      <c r="AB142" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC142" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD142" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE142" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF142" s="11" t="s">
+      <c r="AB142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE142" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF142" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="143" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A143">
+    <row r="143" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A143" s="12">
         <v>1511</v>
       </c>
-      <c r="B143" s="11" t="s">
+      <c r="B143" s="9" t="s">
         <v>133</v>
       </c>
       <c r="C143">
@@ -14967,7 +15243,7 @@
       <c r="K143">
         <v>0</v>
       </c>
-      <c r="L143" s="7">
+      <c r="L143" s="5">
         <v>171015</v>
       </c>
       <c r="M143">
@@ -15015,27 +15291,27 @@
       <c r="AA143" t="s">
         <v>1</v>
       </c>
-      <c r="AB143" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC143" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD143" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE143" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF143" s="11" t="s">
+      <c r="AB143" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC143" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD143" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE143" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF143" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="144" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A144">
+      <c r="A144" s="12">
         <v>1512</v>
       </c>
-      <c r="B144" s="11" t="s">
+      <c r="B144" s="9" t="s">
         <v>217</v>
       </c>
       <c r="C144">
@@ -15113,27 +15389,27 @@
       <c r="AA144" t="s">
         <v>1</v>
       </c>
-      <c r="AB144" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC144" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD144" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE144" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF144" s="11" t="s">
+      <c r="AB144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE144" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF144" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A145">
+      <c r="A145" s="12">
         <v>1513</v>
       </c>
-      <c r="B145" s="11" t="s">
+      <c r="B145" s="9" t="s">
         <v>134</v>
       </c>
       <c r="C145">
@@ -15211,27 +15487,27 @@
       <c r="AA145" t="s">
         <v>1</v>
       </c>
-      <c r="AB145" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC145" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD145" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE145" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF145" s="11" t="s">
+      <c r="AB145" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC145" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD145" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE145" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF145" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="146" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A146">
+      <c r="A146" s="12">
         <v>1514</v>
       </c>
-      <c r="B146" s="11" t="s">
+      <c r="B146" s="9" t="s">
         <v>135</v>
       </c>
       <c r="C146">
@@ -15309,27 +15585,27 @@
       <c r="AA146" t="s">
         <v>1</v>
       </c>
-      <c r="AB146" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC146" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD146" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE146" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF146" s="11" t="s">
+      <c r="AB146" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC146" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD146" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE146" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF146" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A147">
+      <c r="A147" s="12">
         <v>1515</v>
       </c>
-      <c r="B147" s="11" t="s">
+      <c r="B147" s="9" t="s">
         <v>136</v>
       </c>
       <c r="C147" t="s">
@@ -15407,27 +15683,27 @@
       <c r="AA147" t="s">
         <v>1</v>
       </c>
-      <c r="AB147" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC147" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD147" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE147" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF147" s="11" t="s">
+      <c r="AB147" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC147" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD147" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE147" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF147" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A148">
+      <c r="A148" s="12">
         <v>1516</v>
       </c>
-      <c r="B148" s="11" t="s">
+      <c r="B148" s="9" t="s">
         <v>218</v>
       </c>
       <c r="C148" t="s">
@@ -15505,27 +15781,27 @@
       <c r="AA148" t="s">
         <v>1</v>
       </c>
-      <c r="AB148" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC148" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD148" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE148" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF148" s="11" t="s">
+      <c r="AB148" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC148" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD148" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE148" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF148" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="149" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A149">
+    <row r="149" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A149" s="12">
         <v>1517</v>
       </c>
-      <c r="B149" s="11" t="s">
+      <c r="B149" s="9" t="s">
         <v>137</v>
       </c>
       <c r="C149">
@@ -15555,7 +15831,7 @@
       <c r="K149">
         <v>0</v>
       </c>
-      <c r="L149" s="7">
+      <c r="L149" s="5">
         <v>171431</v>
       </c>
       <c r="M149">
@@ -15603,27 +15879,27 @@
       <c r="AA149" t="s">
         <v>1</v>
       </c>
-      <c r="AB149" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC149" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD149" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE149" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF149" s="11" t="s">
+      <c r="AB149" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC149" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD149" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE149" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF149" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A150">
+      <c r="A150" s="12">
         <v>1518</v>
       </c>
-      <c r="B150" s="11" t="s">
+      <c r="B150" s="9" t="s">
         <v>138</v>
       </c>
       <c r="C150" t="s">
@@ -15701,27 +15977,27 @@
       <c r="AA150" t="s">
         <v>1</v>
       </c>
-      <c r="AB150" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC150" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD150" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE150" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF150" s="11" t="s">
+      <c r="AB150" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC150" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD150" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE150" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF150" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A151">
+      <c r="A151" s="12">
         <v>1520</v>
       </c>
-      <c r="B151" s="11" t="s">
+      <c r="B151" s="9" t="s">
         <v>139</v>
       </c>
       <c r="C151" t="s">
@@ -15799,27 +16075,27 @@
       <c r="AA151" t="s">
         <v>1</v>
       </c>
-      <c r="AB151" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC151" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD151" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE151" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF151" s="11" t="s">
+      <c r="AB151" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC151" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD151" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE151" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF151" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="152" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A152">
+      <c r="A152" s="12">
         <v>1521</v>
       </c>
-      <c r="B152" s="11" t="s">
+      <c r="B152" s="9" t="s">
         <v>140</v>
       </c>
       <c r="C152" t="s">
@@ -15897,27 +16173,27 @@
       <c r="AA152" t="s">
         <v>1</v>
       </c>
-      <c r="AB152" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC152" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD152" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE152" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF152" s="11" t="s">
+      <c r="AB152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE152" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF152" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A153">
+      <c r="A153" s="12">
         <v>1522</v>
       </c>
-      <c r="B153" s="11" t="s">
+      <c r="B153" s="9" t="s">
         <v>141</v>
       </c>
       <c r="C153" t="s">
@@ -15995,27 +16271,27 @@
       <c r="AA153" t="s">
         <v>1</v>
       </c>
-      <c r="AB153" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC153" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD153" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE153" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF153" s="11" t="s">
+      <c r="AB153" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC153" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD153" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE153" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF153" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="154" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A154">
+    <row r="154" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A154" s="12">
         <v>1601</v>
       </c>
-      <c r="B154" s="11" t="s">
+      <c r="B154" s="9" t="s">
         <v>142</v>
       </c>
       <c r="C154">
@@ -16045,7 +16321,7 @@
       <c r="K154">
         <v>0</v>
       </c>
-      <c r="L154" s="7">
+      <c r="L154" s="5">
         <v>746779</v>
       </c>
       <c r="M154">
@@ -16093,27 +16369,27 @@
       <c r="AA154" t="s">
         <v>1</v>
       </c>
-      <c r="AB154" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC154" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD154" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE154" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF154" s="11" t="s">
+      <c r="AB154" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC154" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD154" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE154" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF154" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="155" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A155">
+      <c r="A155" s="12">
         <v>1602</v>
       </c>
-      <c r="B155" s="11" t="s">
+      <c r="B155" s="9" t="s">
         <v>143</v>
       </c>
       <c r="C155" t="s">
@@ -16191,27 +16467,27 @@
       <c r="AA155" t="s">
         <v>1</v>
       </c>
-      <c r="AB155" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC155" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD155" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE155" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF155" s="11" t="s">
+      <c r="AB155" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC155" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD155" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE155" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF155" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="156" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A156">
+      <c r="A156" s="12">
         <v>1603</v>
       </c>
-      <c r="B156" s="11" t="s">
+      <c r="B156" s="9" t="s">
         <v>144</v>
       </c>
       <c r="C156" t="s">
@@ -16289,27 +16565,27 @@
       <c r="AA156" t="s">
         <v>1</v>
       </c>
-      <c r="AB156" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC156" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD156" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE156" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF156" s="11" t="s">
+      <c r="AB156" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC156" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD156" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE156" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF156" s="9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="157" spans="1:32" ht="16.5" x14ac:dyDescent="0.25">
-      <c r="A157">
+    <row r="157" spans="1:32" ht="17.25" x14ac:dyDescent="0.3">
+      <c r="A157" s="12">
         <v>1604</v>
       </c>
-      <c r="B157" s="11" t="s">
+      <c r="B157" s="9" t="s">
         <v>145</v>
       </c>
       <c r="C157">
@@ -16339,7 +16615,7 @@
       <c r="K157">
         <v>0</v>
       </c>
-      <c r="L157" s="7">
+      <c r="L157" s="5">
         <v>174188</v>
       </c>
       <c r="M157">
@@ -16387,27 +16663,27 @@
       <c r="AA157" t="s">
         <v>1</v>
       </c>
-      <c r="AB157" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC157" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD157" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE157" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF157" s="11" t="s">
+      <c r="AB157" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC157" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD157" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE157" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF157" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="158" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A158">
+      <c r="A158" s="12">
         <v>1605</v>
       </c>
-      <c r="B158" s="11" t="s">
+      <c r="B158" s="9" t="s">
         <v>146</v>
       </c>
       <c r="C158" t="s">
@@ -16485,27 +16761,27 @@
       <c r="AA158" t="s">
         <v>1</v>
       </c>
-      <c r="AB158" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC158" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD158" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE158" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF158" s="11" t="s">
+      <c r="AB158" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC158" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD158" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE158" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF158" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="159" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A159">
+      <c r="A159" s="12">
         <v>1701</v>
       </c>
-      <c r="B159" s="11" t="s">
+      <c r="B159" s="9" t="s">
         <v>147</v>
       </c>
       <c r="C159">
@@ -16535,7 +16811,7 @@
       <c r="K159">
         <v>0</v>
       </c>
-      <c r="L159" s="6">
+      <c r="L159" s="4">
         <v>746784</v>
       </c>
       <c r="M159">
@@ -16583,27 +16859,27 @@
       <c r="AA159" t="s">
         <v>1</v>
       </c>
-      <c r="AB159" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC159" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD159" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE159" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF159" s="11" t="s">
+      <c r="AB159" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC159" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD159" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE159" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF159" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A160">
+      <c r="A160" s="12">
         <v>1702</v>
       </c>
-      <c r="B160" s="11" t="s">
+      <c r="B160" s="9" t="s">
         <v>148</v>
       </c>
       <c r="C160">
@@ -16681,27 +16957,27 @@
       <c r="AA160" t="s">
         <v>1</v>
       </c>
-      <c r="AB160" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC160" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD160" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE160" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF160" s="11" t="s">
+      <c r="AB160" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC160" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD160" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE160" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF160" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="161" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A161">
+      <c r="A161" s="12">
         <v>1703</v>
       </c>
-      <c r="B161" s="11" t="s">
+      <c r="B161" s="9" t="s">
         <v>149</v>
       </c>
       <c r="C161">
@@ -16779,27 +17055,27 @@
       <c r="AA161" t="s">
         <v>1</v>
       </c>
-      <c r="AB161" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC161" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD161" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE161" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF161" s="11" t="s">
+      <c r="AB161" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC161" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD161" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE161" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF161" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A162">
+      <c r="A162" s="12">
         <v>1704</v>
       </c>
-      <c r="B162" s="11" t="s">
+      <c r="B162" s="9" t="s">
         <v>150</v>
       </c>
       <c r="C162">
@@ -16877,27 +17153,27 @@
       <c r="AA162" t="s">
         <v>1</v>
       </c>
-      <c r="AB162" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC162" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD162" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE162" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF162" s="11" t="s">
+      <c r="AB162" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC162" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD162" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE162" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF162" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="163" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A163">
+      <c r="A163" s="12">
         <v>1801</v>
       </c>
-      <c r="B163" s="11" t="s">
+      <c r="B163" s="9" t="s">
         <v>151</v>
       </c>
       <c r="C163">
@@ -16975,27 +17251,27 @@
       <c r="AA163" t="s">
         <v>1</v>
       </c>
-      <c r="AB163" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC163" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD163" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE163" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF163" s="11" t="s">
+      <c r="AB163" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC163" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD163" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE163" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF163" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="164" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A164">
+      <c r="A164" s="12">
         <v>1802</v>
       </c>
-      <c r="B164" s="11" t="s">
+      <c r="B164" s="9" t="s">
         <v>152</v>
       </c>
       <c r="C164">
@@ -17073,27 +17349,27 @@
       <c r="AA164" t="s">
         <v>1</v>
       </c>
-      <c r="AB164" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC164" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD164" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE164" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF164" s="11" t="s">
+      <c r="AB164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE164" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF164" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="165" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A165">
+      <c r="A165" s="12">
         <v>1803</v>
       </c>
-      <c r="B165" s="11" t="s">
+      <c r="B165" s="9" t="s">
         <v>153</v>
       </c>
       <c r="C165">
@@ -17171,27 +17447,27 @@
       <c r="AA165" t="s">
         <v>1</v>
       </c>
-      <c r="AB165" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC165" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD165" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE165" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF165" s="11" t="s">
+      <c r="AB165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE165" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF165" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="166" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A166">
+      <c r="A166" s="12">
         <v>1804</v>
       </c>
-      <c r="B166" s="11" t="s">
+      <c r="B166" s="9" t="s">
         <v>154</v>
       </c>
       <c r="C166">
@@ -17269,27 +17545,27 @@
       <c r="AA166" t="s">
         <v>1</v>
       </c>
-      <c r="AB166" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC166" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD166" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE166" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF166" s="11" t="s">
+      <c r="AB166" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC166" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD166" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE166" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF166" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="167" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A167">
+      <c r="A167" s="12">
         <v>1805</v>
       </c>
-      <c r="B167" s="11" t="s">
+      <c r="B167" s="9" t="s">
         <v>155</v>
       </c>
       <c r="C167">
@@ -17367,27 +17643,27 @@
       <c r="AA167" t="s">
         <v>1</v>
       </c>
-      <c r="AB167" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC167" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD167" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE167" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF167" s="11" t="s">
+      <c r="AB167" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC167" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD167" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE167" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF167" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="168" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A168">
+      <c r="A168" s="12">
         <v>1806</v>
       </c>
-      <c r="B168" s="11" t="s">
+      <c r="B168" s="9" t="s">
         <v>156</v>
       </c>
       <c r="C168">
@@ -17465,27 +17741,27 @@
       <c r="AA168" t="s">
         <v>1</v>
       </c>
-      <c r="AB168" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC168" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD168" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE168" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF168" s="11" t="s">
+      <c r="AB168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE168" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF168" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="169" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A169">
+      <c r="A169" s="12">
         <v>1901</v>
       </c>
-      <c r="B169" s="11" t="s">
+      <c r="B169" s="9" t="s">
         <v>157</v>
       </c>
       <c r="C169">
@@ -17563,27 +17839,27 @@
       <c r="AA169" t="s">
         <v>1</v>
       </c>
-      <c r="AB169" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC169" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD169" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE169" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF169" s="11" t="s">
+      <c r="AB169" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC169" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD169" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE169" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF169" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="170" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A170">
+      <c r="A170" s="12">
         <v>1902</v>
       </c>
-      <c r="B170" s="11" t="s">
+      <c r="B170" s="9" t="s">
         <v>158</v>
       </c>
       <c r="C170">
@@ -17613,7 +17889,7 @@
       <c r="K170">
         <v>0</v>
       </c>
-      <c r="L170" s="9">
+      <c r="L170" s="7">
         <v>169736</v>
       </c>
       <c r="M170">
@@ -17661,27 +17937,27 @@
       <c r="AA170" t="s">
         <v>1</v>
       </c>
-      <c r="AB170" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC170" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD170" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE170" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF170" s="11" t="s">
+      <c r="AB170" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC170" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD170" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE170" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF170" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="171" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A171">
+      <c r="A171" s="12">
         <v>1903</v>
       </c>
-      <c r="B171" s="11" t="s">
+      <c r="B171" s="9" t="s">
         <v>159</v>
       </c>
       <c r="C171">
@@ -17759,27 +18035,27 @@
       <c r="AA171" t="s">
         <v>1</v>
       </c>
-      <c r="AB171" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC171" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD171" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE171" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF171" s="11" t="s">
+      <c r="AB171" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC171" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD171" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE171" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF171" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="172" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A172">
+      <c r="A172" s="12">
         <v>1904</v>
       </c>
-      <c r="B172" s="11" t="s">
+      <c r="B172" s="9" t="s">
         <v>160</v>
       </c>
       <c r="C172">
@@ -17857,27 +18133,27 @@
       <c r="AA172" t="s">
         <v>1</v>
       </c>
-      <c r="AB172" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC172" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD172" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE172" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF172" s="11" t="s">
+      <c r="AB172" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC172" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD172" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE172" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF172" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="173" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A173">
+      <c r="A173" s="12">
         <v>1905</v>
       </c>
-      <c r="B173" s="11" t="s">
+      <c r="B173" s="9" t="s">
         <v>161</v>
       </c>
       <c r="C173">
@@ -17955,27 +18231,27 @@
       <c r="AA173" t="s">
         <v>1</v>
       </c>
-      <c r="AB173" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC173" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD173" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE173" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF173" s="11" t="s">
+      <c r="AB173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE173" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF173" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="174" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A174">
+      <c r="A174" s="12">
         <v>2001</v>
       </c>
-      <c r="B174" s="11" t="s">
+      <c r="B174" s="9" t="s">
         <v>162</v>
       </c>
       <c r="C174">
@@ -18053,27 +18329,27 @@
       <c r="AA174" t="s">
         <v>1</v>
       </c>
-      <c r="AB174" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC174" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD174" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE174" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF174" s="11" t="s">
+      <c r="AB174" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC174" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD174" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE174" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF174" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="175" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A175">
+      <c r="A175" s="12">
         <v>2002</v>
       </c>
-      <c r="B175" s="11" t="s">
+      <c r="B175" s="9" t="s">
         <v>163</v>
       </c>
       <c r="C175">
@@ -18151,27 +18427,27 @@
       <c r="AA175" t="s">
         <v>1</v>
       </c>
-      <c r="AB175" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC175" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD175" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE175" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF175" s="11" t="s">
+      <c r="AB175" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC175" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD175" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE175" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF175" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="176" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A176">
+      <c r="A176" s="12">
         <v>2003</v>
       </c>
-      <c r="B176" s="11" t="s">
+      <c r="B176" s="9" t="s">
         <v>164</v>
       </c>
       <c r="C176">
@@ -18249,27 +18525,27 @@
       <c r="AA176" t="s">
         <v>1</v>
       </c>
-      <c r="AB176" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC176" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD176" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE176" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF176" s="11" t="s">
+      <c r="AB176" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC176" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD176" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE176" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF176" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="177" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A177">
+      <c r="A177" s="12">
         <v>2004</v>
       </c>
-      <c r="B177" s="11" t="s">
+      <c r="B177" s="9" t="s">
         <v>165</v>
       </c>
       <c r="C177" t="s">
@@ -18347,27 +18623,27 @@
       <c r="AA177" t="s">
         <v>1</v>
       </c>
-      <c r="AB177" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC177" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD177" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE177" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF177" s="11" t="s">
+      <c r="AB177" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC177" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD177" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE177" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF177" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="178" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A178">
+      <c r="A178" s="12">
         <v>2005</v>
       </c>
-      <c r="B178" s="11" t="s">
+      <c r="B178" s="9" t="s">
         <v>166</v>
       </c>
       <c r="C178">
@@ -18445,27 +18721,27 @@
       <c r="AA178" t="s">
         <v>1</v>
       </c>
-      <c r="AB178" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC178" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD178" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE178" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF178" s="11" t="s">
+      <c r="AB178" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC178" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD178" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE178" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF178" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="179" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A179">
+      <c r="A179" s="12">
         <v>2006</v>
       </c>
-      <c r="B179" s="11" t="s">
+      <c r="B179" s="9" t="s">
         <v>219</v>
       </c>
       <c r="C179">
@@ -18543,27 +18819,27 @@
       <c r="AA179" t="s">
         <v>1</v>
       </c>
-      <c r="AB179" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC179" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD179" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE179" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF179" s="11" t="s">
+      <c r="AB179" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC179" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD179" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE179" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF179" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="180" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A180">
+      <c r="A180" s="12">
         <v>2007</v>
       </c>
-      <c r="B180" s="11" t="s">
+      <c r="B180" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C180">
@@ -18641,27 +18917,27 @@
       <c r="AA180" t="s">
         <v>1</v>
       </c>
-      <c r="AB180" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC180" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD180" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE180" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF180" s="11" t="s">
+      <c r="AB180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE180" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF180" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="181" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A181">
+      <c r="A181" s="12">
         <v>2008</v>
       </c>
-      <c r="B181" s="11" t="s">
+      <c r="B181" s="9" t="s">
         <v>168</v>
       </c>
       <c r="C181" t="s">
@@ -18739,27 +19015,27 @@
       <c r="AA181" t="s">
         <v>1</v>
       </c>
-      <c r="AB181" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC181" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD181" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE181" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF181" s="11" t="s">
+      <c r="AB181" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC181" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD181" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE181" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF181" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="182" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A182">
+      <c r="A182" s="12">
         <v>2009</v>
       </c>
-      <c r="B182" s="11" t="s">
+      <c r="B182" s="9" t="s">
         <v>169</v>
       </c>
       <c r="C182">
@@ -18837,27 +19113,27 @@
       <c r="AA182" t="s">
         <v>1</v>
       </c>
-      <c r="AB182" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC182" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD182" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE182" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF182" s="11" t="s">
+      <c r="AB182" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC182" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD182" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE182" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF182" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="183" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A183">
+      <c r="A183" s="12">
         <v>2101</v>
       </c>
-      <c r="B183" s="11" t="s">
+      <c r="B183" s="9" t="s">
         <v>170</v>
       </c>
       <c r="C183">
@@ -18935,27 +19211,27 @@
       <c r="AA183" t="s">
         <v>1</v>
       </c>
-      <c r="AB183" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC183" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD183" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE183" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF183" s="11" t="s">
+      <c r="AB183" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC183" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD183" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE183" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF183" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="184" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A184">
+      <c r="A184" s="12">
         <v>2102</v>
       </c>
-      <c r="B184" s="11" t="s">
+      <c r="B184" s="9" t="s">
         <v>220</v>
       </c>
       <c r="C184">
@@ -19033,27 +19309,27 @@
       <c r="AA184" t="s">
         <v>1</v>
       </c>
-      <c r="AB184" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC184" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD184" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE184" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF184" s="11" t="s">
+      <c r="AB184" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC184" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD184" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE184" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF184" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="185" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A185">
+      <c r="A185" s="12">
         <v>2103</v>
       </c>
-      <c r="B185" s="11" t="s">
+      <c r="B185" s="9" t="s">
         <v>171</v>
       </c>
       <c r="C185">
@@ -19083,7 +19359,7 @@
       <c r="K185">
         <v>1</v>
       </c>
-      <c r="L185" s="9">
+      <c r="L185" s="7">
         <v>172234</v>
       </c>
       <c r="M185">
@@ -19131,27 +19407,27 @@
       <c r="AA185" t="s">
         <v>1</v>
       </c>
-      <c r="AB185" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC185" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD185" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE185" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF185" s="11" t="s">
+      <c r="AB185" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC185" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD185" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE185" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF185" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="186" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A186">
+      <c r="A186" s="12">
         <v>2104</v>
       </c>
-      <c r="B186" s="11" t="s">
+      <c r="B186" s="9" t="s">
         <v>172</v>
       </c>
       <c r="C186">
@@ -19229,27 +19505,27 @@
       <c r="AA186" t="s">
         <v>1</v>
       </c>
-      <c r="AB186" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC186" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD186" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE186" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF186" s="11" t="s">
+      <c r="AB186" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC186" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD186" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE186" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF186" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="187" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A187">
+      <c r="A187" s="12">
         <v>2105</v>
       </c>
-      <c r="B187" s="11" t="s">
+      <c r="B187" s="9" t="s">
         <v>173</v>
       </c>
       <c r="C187">
@@ -19327,27 +19603,27 @@
       <c r="AA187" t="s">
         <v>1</v>
       </c>
-      <c r="AB187" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC187" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD187" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE187" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF187" s="11" t="s">
+      <c r="AB187" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC187" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD187" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE187" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF187" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="188" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A188">
+      <c r="A188" s="12">
         <v>2106</v>
       </c>
-      <c r="B188" s="11" t="s">
+      <c r="B188" s="9" t="s">
         <v>174</v>
       </c>
       <c r="C188" t="s">
@@ -19425,27 +19701,27 @@
       <c r="AA188" t="s">
         <v>1</v>
       </c>
-      <c r="AB188" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC188" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD188" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE188" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF188" s="11" t="s">
+      <c r="AB188" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC188" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD188" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE188" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF188" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="189" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A189">
+      <c r="A189" s="12">
         <v>2201</v>
       </c>
-      <c r="B189" s="11" t="s">
+      <c r="B189" s="9" t="s">
         <v>175</v>
       </c>
       <c r="C189">
@@ -19523,27 +19799,27 @@
       <c r="AA189" t="s">
         <v>1</v>
       </c>
-      <c r="AB189" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC189" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD189" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE189" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF189" s="11" t="s">
+      <c r="AB189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE189" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF189" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="190" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A190">
+      <c r="A190" s="12">
         <v>2202</v>
       </c>
-      <c r="B190" s="11" t="s">
+      <c r="B190" s="9" t="s">
         <v>176</v>
       </c>
       <c r="C190">
@@ -19621,27 +19897,27 @@
       <c r="AA190" t="s">
         <v>1</v>
       </c>
-      <c r="AB190" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC190" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD190" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE190" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF190" s="11" t="s">
+      <c r="AB190" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC190" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD190" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE190" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF190" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="191" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A191">
+      <c r="A191" s="12">
         <v>2203</v>
       </c>
-      <c r="B191" s="11" t="s">
+      <c r="B191" s="9" t="s">
         <v>177</v>
       </c>
       <c r="C191">
@@ -19719,27 +19995,27 @@
       <c r="AA191" t="s">
         <v>1</v>
       </c>
-      <c r="AB191" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC191" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD191" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE191" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF191" s="11" t="s">
+      <c r="AB191" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC191" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD191" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE191" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF191" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="192" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A192">
+      <c r="A192" s="12">
         <v>2204</v>
       </c>
-      <c r="B192" s="11" t="s">
+      <c r="B192" s="9" t="s">
         <v>178</v>
       </c>
       <c r="C192">
@@ -19817,27 +20093,27 @@
       <c r="AA192" t="s">
         <v>1</v>
       </c>
-      <c r="AB192" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC192" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD192" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE192" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF192" s="11" t="s">
+      <c r="AB192" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC192" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD192" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE192" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF192" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="193" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A193">
+      <c r="A193" s="12">
         <v>2205</v>
       </c>
-      <c r="B193" s="11" t="s">
+      <c r="B193" s="9" t="s">
         <v>179</v>
       </c>
       <c r="C193">
@@ -19915,27 +20191,27 @@
       <c r="AA193" t="s">
         <v>1</v>
       </c>
-      <c r="AB193" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC193" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD193" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE193" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF193" s="11" t="s">
+      <c r="AB193" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC193" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD193" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE193" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF193" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="194" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A194">
+      <c r="A194" s="12">
         <v>2206</v>
       </c>
-      <c r="B194" s="11" t="s">
+      <c r="B194" s="9" t="s">
         <v>221</v>
       </c>
       <c r="C194">
@@ -20013,27 +20289,27 @@
       <c r="AA194" t="s">
         <v>1</v>
       </c>
-      <c r="AB194" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC194" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD194" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE194" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF194" s="11" t="s">
+      <c r="AB194" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC194" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD194" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE194" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF194" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="195" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A195">
+      <c r="A195" s="12">
         <v>2207</v>
       </c>
-      <c r="B195" s="11" t="s">
+      <c r="B195" s="9" t="s">
         <v>180</v>
       </c>
       <c r="C195" t="s">
@@ -20111,27 +20387,27 @@
       <c r="AA195" t="s">
         <v>1</v>
       </c>
-      <c r="AB195" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC195" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD195" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE195" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF195" s="11" t="s">
+      <c r="AB195" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC195" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD195" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE195" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF195" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="196" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A196">
+      <c r="A196" s="12">
         <v>2208</v>
       </c>
-      <c r="B196" s="11" t="s">
+      <c r="B196" s="9" t="s">
         <v>181</v>
       </c>
       <c r="C196" t="s">
@@ -20209,27 +20485,27 @@
       <c r="AA196" t="s">
         <v>1</v>
       </c>
-      <c r="AB196" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC196" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD196" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE196" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF196" s="11" t="s">
+      <c r="AB196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE196" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF196" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="197" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A197">
+      <c r="A197" s="12">
         <v>2209</v>
       </c>
-      <c r="B197" s="11" t="s">
+      <c r="B197" s="9" t="s">
         <v>182</v>
       </c>
       <c r="C197">
@@ -20307,123 +20583,36 @@
       <c r="AA197" t="s">
         <v>1</v>
       </c>
-      <c r="AB197" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC197" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD197" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE197" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF197" s="11" t="s">
+      <c r="AB197" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AC197" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AD197" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AE197" s="9" t="s">
+        <v>1</v>
+      </c>
+      <c r="AF197" s="9" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="198" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A198" t="s">
-        <v>1</v>
-      </c>
-      <c r="B198" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="C198" t="s">
-        <v>1</v>
-      </c>
-      <c r="D198" t="s">
-        <v>1</v>
-      </c>
-      <c r="E198" t="s">
-        <v>1</v>
-      </c>
-      <c r="F198" t="s">
-        <v>1</v>
-      </c>
-      <c r="G198" t="s">
-        <v>1</v>
-      </c>
-      <c r="H198" t="s">
-        <v>1</v>
-      </c>
-      <c r="I198" t="s">
-        <v>1</v>
-      </c>
-      <c r="J198" t="s">
-        <v>1</v>
-      </c>
-      <c r="K198" t="s">
-        <v>1</v>
-      </c>
-      <c r="L198" t="s">
-        <v>1</v>
-      </c>
-      <c r="M198" t="s">
-        <v>1</v>
-      </c>
-      <c r="N198" t="s">
-        <v>1</v>
-      </c>
-      <c r="O198" t="s">
-        <v>1</v>
-      </c>
-      <c r="P198" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q198" t="s">
-        <v>1</v>
-      </c>
-      <c r="R198" t="s">
-        <v>1</v>
-      </c>
-      <c r="S198" t="s">
-        <v>1</v>
-      </c>
-      <c r="T198" t="s">
-        <v>1</v>
-      </c>
-      <c r="U198" t="s">
-        <v>1</v>
-      </c>
-      <c r="V198" t="s">
-        <v>1</v>
-      </c>
-      <c r="W198" t="s">
-        <v>1</v>
-      </c>
-      <c r="X198" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y198" t="s">
-        <v>1</v>
-      </c>
-      <c r="Z198" t="s">
-        <v>1</v>
-      </c>
-      <c r="AA198" t="s">
-        <v>1</v>
-      </c>
-      <c r="AB198" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC198" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AD198" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AE198" s="11" t="s">
-        <v>1</v>
-      </c>
-      <c r="AF198" s="11" t="s">
-        <v>1</v>
-      </c>
+      <c r="B198" s="9"/>
+      <c r="AB198" s="9"/>
+      <c r="AC198" s="9"/>
+      <c r="AD198" s="9"/>
+      <c r="AE198" s="9"/>
+      <c r="AF198" s="9"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
+  <ignoredErrors>
+    <ignoredError sqref="A2:A3" numberStoredAsText="1"/>
+  </ignoredErrors>
 </worksheet>
 </file>
 
@@ -20664,15 +20853,15 @@
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{19406E6F-337A-46A8-947C-D1D325581E2C}">
   <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="d62aa7b3-972c-4662-8d39-87c49dcc8060"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="d9cc8711-f26d-4704-83cd-ee2b317f5533"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
-    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="d62aa7b3-972c-4662-8d39-87c49dcc8060"/>
-    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
